--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="CA Exp Intl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_lu1" localSheetId="0">#REF!</definedName>
     <definedName name="_lu1">#REF!</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -715,26 +712,26 @@
     <t>CM</t>
   </si>
   <si>
+    <t>Sender Account Number</t>
+  </si>
+  <si>
+    <t>IERC</t>
+  </si>
+  <si>
+    <t>IER</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Sender Account Number</t>
-  </si>
-  <si>
-    <t>IERC</t>
-  </si>
-  <si>
-    <t>IER</t>
+    <t>PASSPORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -823,8 +820,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +874,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1033,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1023,8 +1044,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1076,9 +1099,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,9 +1165,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,15 +1193,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 27" xfId="4"/>
     <cellStyle name="Normal 2 28" xfId="5"/>
     <cellStyle name="Normal 2 3" xfId="2"/>
     <cellStyle name="Normal 3 10" xfId="1"/>
     <cellStyle name="Normal 4 11" xfId="3"/>
+    <cellStyle name="Normal_Sheet1" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1197,45 +1244,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Total Test Cases Count"/>
-      <sheetName val="US Exp Dom"/>
-      <sheetName val="US Exp Dom-Alcohol"/>
-      <sheetName val="US Exp Intl"/>
-      <sheetName val="US Exp Intl-Alcohol"/>
-      <sheetName val="US Grn Dom Intl And Home Del"/>
-      <sheetName val="Grn Alcohol"/>
-      <sheetName val="CA Exp Dom"/>
-      <sheetName val="CA Exp Intl"/>
-      <sheetName val="CA Grn Dom Intl"/>
-      <sheetName val="IMpB Smartpost test cases"/>
-      <sheetName val="ETD"/>
-      <sheetName val="OneRate"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1538,96 +1546,96 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:DT15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BZ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BW1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CC15" sqref="CC15"/>
+      <selection pane="bottomLeft" activeCell="BY19" sqref="BY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" style="27" customWidth="1"/>
-    <col min="12" max="13" width="18.28515625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="27" customWidth="1"/>
-    <col min="16" max="16" width="24" style="27" customWidth="1"/>
-    <col min="17" max="18" width="18.5703125" style="27" customWidth="1"/>
-    <col min="19" max="19" width="20" style="27" customWidth="1"/>
-    <col min="20" max="20" width="42.42578125" style="27" customWidth="1"/>
-    <col min="21" max="21" width="20" style="27" customWidth="1"/>
-    <col min="22" max="23" width="20.28515625" style="27" customWidth="1"/>
-    <col min="24" max="24" width="24" style="27" customWidth="1"/>
-    <col min="25" max="26" width="20.28515625" style="27" customWidth="1"/>
-    <col min="27" max="27" width="51" style="27" customWidth="1"/>
-    <col min="28" max="29" width="31.5703125" style="27" customWidth="1"/>
-    <col min="30" max="30" width="33.85546875" style="27" customWidth="1"/>
-    <col min="31" max="31" width="51.5703125" style="27" customWidth="1"/>
-    <col min="32" max="32" width="65" style="27" customWidth="1"/>
-    <col min="33" max="33" width="39.140625" style="27" customWidth="1"/>
-    <col min="34" max="34" width="43.7109375" style="27" customWidth="1"/>
-    <col min="35" max="36" width="24.28515625" style="27" customWidth="1"/>
-    <col min="37" max="37" width="21.140625" style="27" customWidth="1"/>
-    <col min="38" max="38" width="37.42578125" style="27" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" style="27" customWidth="1"/>
-    <col min="40" max="41" width="41.5703125" style="27" customWidth="1"/>
-    <col min="42" max="42" width="42.85546875" style="27" customWidth="1"/>
-    <col min="43" max="44" width="37.85546875" style="27" customWidth="1"/>
-    <col min="45" max="46" width="54.140625" style="27" customWidth="1"/>
-    <col min="47" max="48" width="42.85546875" style="27" customWidth="1"/>
-    <col min="49" max="51" width="36.140625" style="27" customWidth="1"/>
-    <col min="52" max="52" width="44.42578125" style="27" customWidth="1"/>
-    <col min="53" max="53" width="19" style="27" customWidth="1"/>
-    <col min="54" max="54" width="15.7109375" style="27" customWidth="1"/>
-    <col min="55" max="55" width="36.140625" style="27" customWidth="1"/>
-    <col min="56" max="56" width="25.42578125" style="27" customWidth="1"/>
-    <col min="57" max="57" width="13" style="27" customWidth="1"/>
-    <col min="58" max="58" width="41.7109375" style="27" customWidth="1"/>
-    <col min="59" max="59" width="15.28515625" style="27" customWidth="1"/>
-    <col min="60" max="62" width="35.28515625" style="27" customWidth="1"/>
-    <col min="63" max="65" width="42.85546875" style="27" customWidth="1"/>
-    <col min="66" max="66" width="50.7109375" style="27" customWidth="1"/>
-    <col min="67" max="67" width="20" style="27" customWidth="1"/>
-    <col min="68" max="69" width="47.28515625" style="27" customWidth="1"/>
-    <col min="70" max="70" width="40.42578125" style="27" customWidth="1"/>
-    <col min="71" max="71" width="13.7109375" style="27" customWidth="1"/>
-    <col min="72" max="75" width="45.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="27.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="35.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="25.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.140625" style="27" customWidth="1"/>
-    <col min="82" max="83" width="65" style="27" customWidth="1"/>
-    <col min="84" max="84" width="61.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="61.140625" style="27" customWidth="1"/>
-    <col min="87" max="89" width="29.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="29.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="29.7109375" style="27" customWidth="1"/>
-    <col min="92" max="95" width="29.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="17.5703125" style="27" customWidth="1"/>
-    <col min="98" max="98" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="99" max="105" width="17.5703125" style="27" customWidth="1"/>
-    <col min="106" max="106" width="26.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="107" max="111" width="17.5703125" style="27" customWidth="1"/>
-    <col min="112" max="114" width="36.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="40.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="38.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20" style="27" bestFit="1" customWidth="1"/>
-    <col min="119" max="120" width="51.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="70" style="27" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18" style="27" customWidth="1"/>
-    <col min="124" max="124" width="25.7109375" style="27" customWidth="1"/>
-    <col min="125" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="21.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" style="26" customWidth="1"/>
+    <col min="12" max="13" width="18.28515625" style="26" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="24" style="26" customWidth="1"/>
+    <col min="17" max="18" width="18.5703125" style="26" customWidth="1"/>
+    <col min="19" max="19" width="20" style="26" customWidth="1"/>
+    <col min="20" max="20" width="42.42578125" style="26" customWidth="1"/>
+    <col min="21" max="21" width="20" style="26" customWidth="1"/>
+    <col min="22" max="23" width="20.28515625" style="26" customWidth="1"/>
+    <col min="24" max="24" width="24" style="26" customWidth="1"/>
+    <col min="25" max="26" width="20.28515625" style="26" customWidth="1"/>
+    <col min="27" max="27" width="51" style="26" customWidth="1"/>
+    <col min="28" max="29" width="31.5703125" style="26" customWidth="1"/>
+    <col min="30" max="30" width="33.85546875" style="26" customWidth="1"/>
+    <col min="31" max="31" width="51.5703125" style="26" customWidth="1"/>
+    <col min="32" max="32" width="65" style="26" customWidth="1"/>
+    <col min="33" max="33" width="39.140625" style="26" customWidth="1"/>
+    <col min="34" max="34" width="43.7109375" style="26" customWidth="1"/>
+    <col min="35" max="36" width="24.28515625" style="26" customWidth="1"/>
+    <col min="37" max="37" width="21.140625" style="26" customWidth="1"/>
+    <col min="38" max="38" width="37.42578125" style="26" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" style="26" customWidth="1"/>
+    <col min="40" max="41" width="41.5703125" style="26" customWidth="1"/>
+    <col min="42" max="42" width="42.85546875" style="26" customWidth="1"/>
+    <col min="43" max="44" width="37.85546875" style="26" customWidth="1"/>
+    <col min="45" max="46" width="54.140625" style="26" customWidth="1"/>
+    <col min="47" max="48" width="42.85546875" style="26" customWidth="1"/>
+    <col min="49" max="51" width="36.140625" style="26" customWidth="1"/>
+    <col min="52" max="52" width="44.42578125" style="26" customWidth="1"/>
+    <col min="53" max="53" width="19" style="26" customWidth="1"/>
+    <col min="54" max="54" width="15.7109375" style="26" customWidth="1"/>
+    <col min="55" max="55" width="36.140625" style="26" customWidth="1"/>
+    <col min="56" max="56" width="25.42578125" style="26" customWidth="1"/>
+    <col min="57" max="57" width="13" style="26" customWidth="1"/>
+    <col min="58" max="58" width="41.7109375" style="26" customWidth="1"/>
+    <col min="59" max="59" width="15.28515625" style="26" customWidth="1"/>
+    <col min="60" max="61" width="35.28515625" style="26" customWidth="1"/>
+    <col min="62" max="64" width="42.85546875" style="26" customWidth="1"/>
+    <col min="65" max="65" width="50.7109375" style="26" customWidth="1"/>
+    <col min="66" max="66" width="20" style="26" customWidth="1"/>
+    <col min="67" max="68" width="47.28515625" style="26" customWidth="1"/>
+    <col min="69" max="69" width="40.42578125" style="26" customWidth="1"/>
+    <col min="70" max="70" width="13.7109375" style="26" customWidth="1"/>
+    <col min="71" max="74" width="45.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="36.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="22.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.140625" style="26" customWidth="1"/>
+    <col min="81" max="82" width="65" style="26" customWidth="1"/>
+    <col min="83" max="83" width="61.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="61.140625" style="26" customWidth="1"/>
+    <col min="86" max="88" width="29.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="89" max="93" width="29.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="17.5703125" style="26" customWidth="1"/>
+    <col min="96" max="96" width="22.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="97" max="103" width="17.5703125" style="26" customWidth="1"/>
+    <col min="104" max="104" width="26.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="105" max="109" width="17.5703125" style="26" customWidth="1"/>
+    <col min="110" max="112" width="36.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="40.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="38.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20" style="26" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="51.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="70" style="26" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18" style="26" customWidth="1"/>
+    <col min="122" max="122" width="25.7109375" style="26" customWidth="1"/>
+    <col min="123" max="123" width="35.28515625" style="26" customWidth="1"/>
+    <col min="124" max="124" width="29.7109375" style="26" customWidth="1"/>
+    <col min="125" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:124" s="7" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1813,7 +1821,7 @@
         <v>29</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BK1" s="4" t="s">
         <v>30</v>
@@ -1822,25 +1830,25 @@
         <v>30</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="BQ1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BR1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BT1" s="4" t="s">
         <v>34</v>
@@ -1852,58 +1860,58 @@
         <v>34</v>
       </c>
       <c r="BW1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BX1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="BY1" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="BZ1" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CB1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CD1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="CH1" s="4" t="s">
-        <v>40</v>
+      <c r="CH1" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="CI1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CJ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="CK1" s="5" t="s">
-        <v>42</v>
+      <c r="CK1" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="CL1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="CM1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CN1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CO1" s="4" t="s">
         <v>44</v>
@@ -1915,22 +1923,22 @@
         <v>44</v>
       </c>
       <c r="CR1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CS1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CT1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CU1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CX1" s="4" t="s">
         <v>48</v>
@@ -1948,10 +1956,10 @@
         <v>48</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>49</v>
@@ -1963,41 +1971,41 @@
         <v>49</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="DI1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="DJ1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="DL1" s="4"/>
       <c r="DM1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN1" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="DO1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="DP1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DQ1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="DR1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="DS1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="DT1" s="6" t="s">
+      <c r="DR1" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="DS1" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="DT1" s="53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:124" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2177,3634 +2185,3638 @@
       <c r="BI2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BJ2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BR2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="CF2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="CG2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="CL2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="CM2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="CN2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="CP2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="CR2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="CX2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="CZ2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="DA2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="DD2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="DE2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="DF2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="DG2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="DH2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="DO2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="DR2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="DS2" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="BO2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BS2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="CA2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CF2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="CG2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="CM2" s="11" t="s">
+      <c r="DT2" s="54" t="s">
         <v>62</v>
-      </c>
-      <c r="CN2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="CO2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="CP2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="CQ2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="CR2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="CS2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="CT2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="CU2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="CW2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="CX2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CY2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="CZ2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="DA2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="DB2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="DC2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="DE2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="DF2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="DG2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="DH2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="DI2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="DJ2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="DL2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="DM2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="DN2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="DO2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="DP2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="DQ2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="DT2" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>4</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="21">
         <v>17601</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AA3" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AF3" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AG3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AH3" s="20">
         <v>198823520</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AI3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AK3" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL3" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM3" s="21">
+      <c r="AL3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM3" s="20">
         <v>15</v>
       </c>
-      <c r="AN3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO3" s="25">
+      <c r="AN3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO3" s="24">
         <v>50</v>
       </c>
-      <c r="AP3" s="25" t="s">
+      <c r="AP3" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR3" s="25">
+      <c r="AQ3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR3" s="24">
         <v>100</v>
       </c>
-      <c r="AS3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT3" s="25">
+      <c r="AS3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT3" s="24">
         <v>25</v>
       </c>
-      <c r="AU3" s="25" t="s">
+      <c r="AU3" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AV3" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AW3" s="21">
+      <c r="AW3" s="20">
         <v>1</v>
       </c>
-      <c r="AX3" s="21" t="s">
+      <c r="AX3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY3" s="21" t="s">
+      <c r="AY3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ3" s="21" t="s">
+      <c r="AZ3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA3" s="21">
+      <c r="BA3" s="20">
         <v>4</v>
       </c>
-      <c r="BB3" s="21">
+      <c r="BB3" s="20">
         <v>1</v>
       </c>
-      <c r="BC3" s="21" t="s">
+      <c r="BC3" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD3" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE3" s="21">
+      <c r="BD3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE3" s="20">
         <v>15</v>
       </c>
-      <c r="BF3" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG3" s="21">
+      <c r="BF3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG3" s="20">
         <v>15</v>
       </c>
-      <c r="BH3" s="21" t="s">
+      <c r="BH3" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="21"/>
-      <c r="BM3" s="21"/>
-      <c r="BN3" s="21" t="s">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO3" s="21">
+      <c r="BN3" s="20">
         <v>1</v>
       </c>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="21"/>
-      <c r="BR3" s="21" t="s">
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS3" s="21">
+      <c r="BR3" s="20">
         <v>4</v>
       </c>
-      <c r="BT3" s="21"/>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="21"/>
-      <c r="BW3" s="21"/>
-      <c r="BX3" s="21" t="s">
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY3" s="21" t="s">
+      <c r="BX3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ3" s="21"/>
-      <c r="CA3" s="21"/>
-      <c r="CB3" s="21"/>
-      <c r="CC3" s="21"/>
-      <c r="CD3" s="21"/>
-      <c r="CE3" s="21"/>
-      <c r="CF3" s="21"/>
-      <c r="CG3" s="21"/>
-      <c r="CH3" s="21"/>
-      <c r="CI3" s="21"/>
-      <c r="CJ3" s="21"/>
-      <c r="CK3" s="21"/>
-      <c r="CL3" s="21"/>
-      <c r="CM3" s="21"/>
-      <c r="CN3" s="21"/>
-      <c r="CO3" s="21"/>
-      <c r="CP3" s="21"/>
-      <c r="CQ3" s="21"/>
-      <c r="CR3" s="21"/>
-      <c r="CS3" s="21"/>
-      <c r="CT3" s="21"/>
-      <c r="CU3" s="21"/>
-      <c r="CV3" s="21"/>
-      <c r="CW3" s="21"/>
-      <c r="CX3" s="21"/>
-      <c r="CY3" s="21"/>
-      <c r="CZ3" s="21"/>
-      <c r="DA3" s="21"/>
-      <c r="DB3" s="21"/>
-      <c r="DC3" s="21"/>
-      <c r="DD3" s="21"/>
-      <c r="DE3" s="21"/>
-      <c r="DF3" s="21"/>
-      <c r="DG3" s="21"/>
-      <c r="DH3" s="21"/>
-      <c r="DI3" s="21"/>
-      <c r="DJ3" s="21"/>
-      <c r="DK3" s="21"/>
-      <c r="DL3" s="21"/>
-      <c r="DM3" s="21"/>
-      <c r="DN3" s="21"/>
-      <c r="DO3" s="21"/>
-      <c r="DP3" s="21"/>
-      <c r="DQ3" s="21"/>
-      <c r="DR3" s="21"/>
-      <c r="DS3" s="21"/>
-      <c r="DT3" s="26"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="20"/>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
+      <c r="CS3" s="20"/>
+      <c r="CT3" s="20"/>
+      <c r="CU3" s="20"/>
+      <c r="CV3" s="20"/>
+      <c r="CW3" s="20"/>
+      <c r="CX3" s="20"/>
+      <c r="CY3" s="20"/>
+      <c r="CZ3" s="20"/>
+      <c r="DA3" s="20"/>
+      <c r="DB3" s="20"/>
+      <c r="DC3" s="20"/>
+      <c r="DD3" s="20"/>
+      <c r="DE3" s="20"/>
+      <c r="DF3" s="20"/>
+      <c r="DG3" s="20"/>
+      <c r="DH3" s="20"/>
+      <c r="DI3" s="20"/>
+      <c r="DJ3" s="20"/>
+      <c r="DK3" s="20"/>
+      <c r="DL3" s="20"/>
+      <c r="DM3" s="20"/>
+      <c r="DN3" s="20"/>
+      <c r="DO3" s="20"/>
+      <c r="DP3" s="20"/>
+      <c r="DQ3" s="20"/>
+      <c r="DR3" s="25"/>
+      <c r="DS3" s="55"/>
+      <c r="DT3" s="55"/>
     </row>
-    <row r="4" spans="1:124" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:124" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>10</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="21">
         <v>523625</v>
       </c>
-      <c r="Z4" s="21" t="s">
+      <c r="Z4" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AC4" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AD4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE4" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21" t="s">
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AH4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AI4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ4" s="21" t="s">
+      <c r="AJ4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK4" s="21" t="s">
+      <c r="AK4" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM4" s="21">
+      <c r="AL4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM4" s="20">
         <v>5000</v>
       </c>
-      <c r="AN4" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO4" s="25">
+      <c r="AN4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO4" s="24">
         <v>50</v>
       </c>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21">
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20">
         <v>1</v>
       </c>
-      <c r="AX4" s="21" t="s">
+      <c r="AX4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY4" s="21" t="s">
+      <c r="AY4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ4" s="21" t="s">
+      <c r="AZ4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA4" s="21">
+      <c r="BA4" s="20">
         <v>10</v>
       </c>
-      <c r="BB4" s="21">
+      <c r="BB4" s="20">
         <v>10</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BC4" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE4" s="21">
+      <c r="BD4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE4" s="20">
         <v>500</v>
       </c>
-      <c r="BF4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG4" s="21">
+      <c r="BF4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG4" s="20">
         <v>5000</v>
       </c>
-      <c r="BH4" s="21" t="s">
+      <c r="BH4" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="BI4" s="21" t="s">
+      <c r="BI4" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="21"/>
-      <c r="BL4" s="21"/>
-      <c r="BM4" s="21"/>
-      <c r="BN4" s="21" t="s">
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO4" s="21">
+      <c r="BN4" s="20">
         <v>1</v>
       </c>
-      <c r="BP4" s="21">
+      <c r="BO4" s="20">
         <v>5000</v>
       </c>
-      <c r="BQ4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR4" s="21" t="s">
+      <c r="BP4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS4" s="21">
+      <c r="BR4" s="20">
         <v>10</v>
       </c>
-      <c r="BT4" s="21">
+      <c r="BS4" s="20">
         <v>55</v>
       </c>
-      <c r="BU4" s="21">
+      <c r="BT4" s="20">
         <v>15</v>
       </c>
-      <c r="BV4" s="21">
+      <c r="BU4" s="20">
         <v>12</v>
       </c>
-      <c r="BW4" s="21" t="s">
+      <c r="BV4" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="BX4" s="21" t="s">
+      <c r="BW4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY4" s="21" t="s">
+      <c r="BX4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ4" s="21"/>
-      <c r="CA4" s="21"/>
-      <c r="CB4" s="21"/>
-      <c r="CC4" s="21"/>
-      <c r="CD4" s="21"/>
-      <c r="CE4" s="21"/>
-      <c r="CF4" s="21"/>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="21"/>
-      <c r="CI4" s="21"/>
-      <c r="CJ4" s="21"/>
-      <c r="CK4" s="21"/>
-      <c r="CL4" s="21"/>
-      <c r="CM4" s="21"/>
-      <c r="CN4" s="21"/>
-      <c r="CO4" s="21"/>
-      <c r="CP4" s="21"/>
-      <c r="CQ4" s="21"/>
-      <c r="CR4" s="21"/>
-      <c r="CS4" s="21"/>
-      <c r="CT4" s="28" t="s">
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
+      <c r="CJ4" s="20"/>
+      <c r="CK4" s="20"/>
+      <c r="CL4" s="20"/>
+      <c r="CM4" s="20"/>
+      <c r="CN4" s="20"/>
+      <c r="CO4" s="20"/>
+      <c r="CP4" s="20"/>
+      <c r="CQ4" s="20"/>
+      <c r="CR4" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="CU4" s="28">
+      <c r="CS4" s="27">
         <v>222326460</v>
       </c>
-      <c r="CV4" s="21" t="s">
+      <c r="CT4" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="CW4" s="21">
+      <c r="CU4" s="20">
         <v>1234567890</v>
       </c>
-      <c r="CX4" s="21">
+      <c r="CV4" s="20">
         <v>12345</v>
       </c>
-      <c r="CY4" s="21" t="s">
+      <c r="CW4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="CZ4" s="21" t="s">
+      <c r="CX4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="DA4" s="21" t="s">
+      <c r="CY4" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="DB4" s="21">
+      <c r="CZ4" s="20">
         <v>9923933239</v>
       </c>
-      <c r="DC4" s="21">
+      <c r="DA4" s="20">
         <v>3267</v>
       </c>
-      <c r="DD4" s="29" t="s">
+      <c r="DB4" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="DE4" s="28" t="s">
+      <c r="DC4" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="DF4" s="28" t="s">
+      <c r="DD4" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="DG4" s="28" t="s">
+      <c r="DE4" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="DH4" s="28">
+      <c r="DF4" s="27">
         <v>710032</v>
       </c>
-      <c r="DI4" s="28" t="s">
+      <c r="DG4" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="DJ4" s="21"/>
-      <c r="DK4" s="21"/>
-      <c r="DL4" s="21"/>
-      <c r="DM4" s="21"/>
-      <c r="DN4" s="21"/>
-      <c r="DO4" s="21"/>
-      <c r="DP4" s="21"/>
-      <c r="DQ4" s="21"/>
-      <c r="DR4" s="21"/>
-      <c r="DS4" s="21"/>
-      <c r="DT4" s="26"/>
+      <c r="DH4" s="20"/>
+      <c r="DI4" s="20"/>
+      <c r="DJ4" s="20"/>
+      <c r="DK4" s="20"/>
+      <c r="DL4" s="20"/>
+      <c r="DM4" s="20"/>
+      <c r="DN4" s="20"/>
+      <c r="DO4" s="20"/>
+      <c r="DP4" s="20"/>
+      <c r="DQ4" s="20"/>
+      <c r="DR4" s="25"/>
+      <c r="DS4" s="55"/>
+      <c r="DT4" s="55"/>
     </row>
     <row r="5" spans="1:124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>40</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="W5" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AC5" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AD5" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21" t="s">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AH5" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AI5" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AJ5" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK5" s="21" t="s">
+      <c r="AK5" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM5" s="21">
+      <c r="AL5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM5" s="20">
         <v>3000</v>
       </c>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21" t="s">
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AW5" s="21">
+      <c r="AW5" s="20">
         <v>1</v>
       </c>
-      <c r="AX5" s="21" t="s">
+      <c r="AX5" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AY5" s="21" t="s">
+      <c r="AY5" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ5" s="21" t="s">
+      <c r="AZ5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BA5" s="21">
+      <c r="BA5" s="20">
         <v>20</v>
       </c>
-      <c r="BB5" s="21">
+      <c r="BB5" s="20">
         <v>2</v>
       </c>
-      <c r="BC5" s="21" t="s">
+      <c r="BC5" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE5" s="21">
+      <c r="BD5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE5" s="20">
         <v>1500</v>
       </c>
-      <c r="BF5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG5" s="21">
+      <c r="BF5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG5" s="20">
         <v>3000</v>
       </c>
-      <c r="BH5" s="21" t="s">
+      <c r="BH5" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="BI5" s="21" t="s">
+      <c r="BI5" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="21"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="21" t="s">
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO5" s="21">
+      <c r="BN5" s="20">
         <v>1</v>
       </c>
-      <c r="BP5" s="21"/>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21" t="s">
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BS5" s="21">
+      <c r="BR5" s="20">
         <v>40</v>
       </c>
-      <c r="BT5" s="21"/>
-      <c r="BU5" s="21"/>
-      <c r="BV5" s="21"/>
-      <c r="BW5" s="21"/>
-      <c r="BX5" s="21" t="s">
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY5" s="21" t="s">
+      <c r="BX5" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="21"/>
-      <c r="CE5" s="21"/>
-      <c r="CF5" s="21"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="21"/>
-      <c r="CI5" s="21"/>
-      <c r="CJ5" s="21"/>
-      <c r="CK5" s="21"/>
-      <c r="CL5" s="21"/>
-      <c r="CM5" s="21"/>
-      <c r="CN5" s="21"/>
-      <c r="CO5" s="21"/>
-      <c r="CP5" s="21"/>
-      <c r="CQ5" s="21"/>
-      <c r="CR5" s="21"/>
-      <c r="CS5" s="21"/>
-      <c r="CT5" s="21"/>
-      <c r="CU5" s="21"/>
-      <c r="CV5" s="21"/>
-      <c r="CW5" s="21"/>
-      <c r="CX5" s="21"/>
-      <c r="CY5" s="21"/>
-      <c r="CZ5" s="21"/>
-      <c r="DA5" s="21"/>
-      <c r="DB5" s="21"/>
-      <c r="DC5" s="21"/>
-      <c r="DD5" s="21"/>
-      <c r="DE5" s="21"/>
-      <c r="DF5" s="21"/>
-      <c r="DG5" s="21"/>
-      <c r="DH5" s="21"/>
-      <c r="DI5" s="21"/>
-      <c r="DJ5" s="21"/>
-      <c r="DK5" s="21"/>
-      <c r="DL5" s="21"/>
-      <c r="DM5" s="21"/>
-      <c r="DN5" s="21"/>
-      <c r="DO5" s="21"/>
-      <c r="DP5" s="21"/>
-      <c r="DQ5" s="21"/>
-      <c r="DR5" s="21"/>
-      <c r="DS5" s="21"/>
-      <c r="DT5" s="26"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
+      <c r="CJ5" s="20"/>
+      <c r="CK5" s="20"/>
+      <c r="CL5" s="20"/>
+      <c r="CM5" s="20"/>
+      <c r="CN5" s="20"/>
+      <c r="CO5" s="20"/>
+      <c r="CP5" s="20"/>
+      <c r="CQ5" s="20"/>
+      <c r="CR5" s="20"/>
+      <c r="CS5" s="20"/>
+      <c r="CT5" s="20"/>
+      <c r="CU5" s="20"/>
+      <c r="CV5" s="20"/>
+      <c r="CW5" s="20"/>
+      <c r="CX5" s="20"/>
+      <c r="CY5" s="20"/>
+      <c r="CZ5" s="20"/>
+      <c r="DA5" s="20"/>
+      <c r="DB5" s="20"/>
+      <c r="DC5" s="20"/>
+      <c r="DD5" s="20"/>
+      <c r="DE5" s="20"/>
+      <c r="DF5" s="20"/>
+      <c r="DG5" s="20"/>
+      <c r="DH5" s="20"/>
+      <c r="DI5" s="20"/>
+      <c r="DJ5" s="20"/>
+      <c r="DK5" s="20"/>
+      <c r="DL5" s="20"/>
+      <c r="DM5" s="20"/>
+      <c r="DN5" s="20"/>
+      <c r="DO5" s="20"/>
+      <c r="DP5" s="20"/>
+      <c r="DQ5" s="20"/>
+      <c r="DR5" s="25"/>
+      <c r="DS5" s="55"/>
+      <c r="DT5" s="55"/>
     </row>
     <row r="6" spans="1:124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>3</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="21">
         <v>43301</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="20">
         <v>150067600</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AC6" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD6" s="21" t="s">
+      <c r="AD6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21" t="s">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AH6" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI6" s="21" t="s">
+      <c r="AI6" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ6" s="21" t="s">
+      <c r="AJ6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK6" s="21" t="s">
+      <c r="AK6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM6" s="21">
+      <c r="AL6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM6" s="20">
         <v>80</v>
       </c>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21" t="s">
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AW6" s="21">
+      <c r="AW6" s="20">
         <v>1</v>
       </c>
-      <c r="AX6" s="21" t="s">
+      <c r="AX6" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AY6" s="21" t="s">
+      <c r="AY6" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ6" s="21" t="s">
+      <c r="AZ6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA6" s="21">
+      <c r="BA6" s="20">
         <v>3</v>
       </c>
-      <c r="BB6" s="21">
+      <c r="BB6" s="20">
         <v>2</v>
       </c>
-      <c r="BC6" s="21" t="s">
+      <c r="BC6" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE6" s="21">
+      <c r="BD6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE6" s="20">
         <v>600</v>
       </c>
-      <c r="BF6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG6" s="21">
+      <c r="BF6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG6" s="20">
         <v>40</v>
       </c>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21" t="s">
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO6" s="21">
+      <c r="BN6" s="20">
         <v>1</v>
       </c>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21" t="s">
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS6" s="21">
+      <c r="BR6" s="20">
         <v>3</v>
       </c>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21" t="s">
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY6" s="21" t="s">
+      <c r="BX6" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21" t="s">
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
+      <c r="CA6" s="20"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="CL6" s="21" t="s">
+      <c r="CK6" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="CM6" s="21" t="s">
+      <c r="CL6" s="20">
+        <v>9012638799</v>
+      </c>
+      <c r="CM6" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN6" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="CO6" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP6" s="20">
+        <v>10018</v>
+      </c>
+      <c r="CQ6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="CR6" s="20"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="20"/>
+      <c r="CV6" s="20"/>
+      <c r="CW6" s="20"/>
+      <c r="CX6" s="20"/>
+      <c r="CY6" s="20"/>
+      <c r="CZ6" s="20"/>
+      <c r="DA6" s="20"/>
+      <c r="DB6" s="20"/>
+      <c r="DC6" s="20"/>
+      <c r="DD6" s="20"/>
+      <c r="DE6" s="20"/>
+      <c r="DF6" s="20"/>
+      <c r="DG6" s="20"/>
+      <c r="DH6" s="20"/>
+      <c r="DI6" s="20"/>
+      <c r="DJ6" s="20"/>
+      <c r="DK6" s="20"/>
+      <c r="DL6" s="20"/>
+      <c r="DM6" s="20"/>
+      <c r="DN6" s="20"/>
+      <c r="DO6" s="20"/>
+      <c r="DP6" s="20"/>
+      <c r="DQ6" s="20"/>
+      <c r="DR6" s="25"/>
+      <c r="DS6" s="55"/>
+      <c r="DT6" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="CN6" s="21">
-        <v>9012638799</v>
-      </c>
-      <c r="CO6" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP6" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="CQ6" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR6" s="21">
-        <v>10018</v>
-      </c>
-      <c r="CS6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CT6" s="21"/>
-      <c r="CU6" s="21"/>
-      <c r="CV6" s="21"/>
-      <c r="CW6" s="21"/>
-      <c r="CX6" s="21"/>
-      <c r="CY6" s="21"/>
-      <c r="CZ6" s="21"/>
-      <c r="DA6" s="21"/>
-      <c r="DB6" s="21"/>
-      <c r="DC6" s="21"/>
-      <c r="DD6" s="21"/>
-      <c r="DE6" s="21"/>
-      <c r="DF6" s="21"/>
-      <c r="DG6" s="21"/>
-      <c r="DH6" s="21"/>
-      <c r="DI6" s="21"/>
-      <c r="DJ6" s="21"/>
-      <c r="DK6" s="21"/>
-      <c r="DL6" s="21"/>
-      <c r="DM6" s="21"/>
-      <c r="DN6" s="21"/>
-      <c r="DO6" s="21"/>
-      <c r="DP6" s="21"/>
-      <c r="DQ6" s="21"/>
-      <c r="DR6" s="21"/>
-      <c r="DS6" s="21"/>
-      <c r="DT6" s="26"/>
     </row>
     <row r="7" spans="1:124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>180</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="21">
         <v>32202</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="Z7" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AC7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AD7" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21" t="s">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AH7" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="AJ7" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="AK7" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM7" s="21">
+      <c r="AL7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM7" s="20">
         <v>2400</v>
       </c>
-      <c r="AN7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO7" s="21">
+      <c r="AN7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO7" s="20">
         <v>50</v>
       </c>
-      <c r="AP7" s="21" t="s">
+      <c r="AP7" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AQ7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR7" s="21">
+      <c r="AQ7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR7" s="20">
         <v>100</v>
       </c>
-      <c r="AS7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT7" s="21">
+      <c r="AS7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT7" s="20">
         <v>25</v>
       </c>
-      <c r="AU7" s="21" t="s">
+      <c r="AU7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="AV7" s="21" t="s">
+      <c r="AV7" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AW7" s="21">
+      <c r="AW7" s="20">
         <v>1</v>
       </c>
-      <c r="AX7" s="21" t="s">
+      <c r="AX7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY7" s="21" t="s">
+      <c r="AY7" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ7" s="21" t="s">
+      <c r="AZ7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA7" s="21">
+      <c r="BA7" s="20">
         <v>30</v>
       </c>
-      <c r="BB7" s="21">
+      <c r="BB7" s="20">
         <v>10</v>
       </c>
-      <c r="BC7" s="21" t="s">
+      <c r="BC7" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE7" s="21">
+      <c r="BD7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE7" s="20">
         <v>240</v>
       </c>
-      <c r="BF7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG7" s="21">
+      <c r="BF7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG7" s="20">
         <v>2400</v>
       </c>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21" t="s">
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO7" s="21">
+      <c r="BN7" s="20">
         <v>2</v>
       </c>
-      <c r="BP7" s="21">
+      <c r="BO7" s="20">
         <v>2400</v>
       </c>
-      <c r="BQ7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR7" s="21" t="s">
+      <c r="BP7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS7" s="21">
+      <c r="BR7" s="20">
         <v>150</v>
       </c>
-      <c r="BT7" s="21">
+      <c r="BS7" s="20">
         <v>55</v>
       </c>
-      <c r="BU7" s="21">
+      <c r="BT7" s="20">
         <v>15</v>
       </c>
-      <c r="BV7" s="21">
+      <c r="BU7" s="20">
         <v>12</v>
       </c>
-      <c r="BW7" s="21" t="s">
+      <c r="BV7" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="BX7" s="21" t="s">
+      <c r="BW7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY7" s="21" t="s">
+      <c r="BX7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="21"/>
-      <c r="CI7" s="21"/>
-      <c r="CJ7" s="21"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
-      <c r="CM7" s="21"/>
-      <c r="CN7" s="21"/>
-      <c r="CO7" s="21"/>
-      <c r="CP7" s="21"/>
-      <c r="CQ7" s="21"/>
-      <c r="CR7" s="21"/>
-      <c r="CS7" s="21"/>
-      <c r="CT7" s="21"/>
-      <c r="CU7" s="21"/>
-      <c r="CV7" s="21"/>
-      <c r="CW7" s="21"/>
-      <c r="CX7" s="21"/>
-      <c r="CY7" s="21"/>
-      <c r="CZ7" s="21"/>
-      <c r="DA7" s="21"/>
-      <c r="DB7" s="21"/>
-      <c r="DC7" s="21"/>
-      <c r="DD7" s="21"/>
-      <c r="DE7" s="21"/>
-      <c r="DF7" s="21"/>
-      <c r="DG7" s="21"/>
-      <c r="DH7" s="21"/>
-      <c r="DI7" s="21"/>
-      <c r="DJ7" s="21"/>
-      <c r="DK7" s="21"/>
-      <c r="DL7" s="21"/>
-      <c r="DM7" s="21"/>
-      <c r="DN7" s="21"/>
-      <c r="DO7" s="21"/>
-      <c r="DP7" s="21"/>
-      <c r="DQ7" s="21"/>
-      <c r="DR7" s="21"/>
-      <c r="DS7" s="21"/>
-      <c r="DT7" s="26"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
+      <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="20"/>
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="20"/>
+      <c r="CS7" s="20"/>
+      <c r="CT7" s="20"/>
+      <c r="CU7" s="20"/>
+      <c r="CV7" s="20"/>
+      <c r="CW7" s="20"/>
+      <c r="CX7" s="20"/>
+      <c r="CY7" s="20"/>
+      <c r="CZ7" s="20"/>
+      <c r="DA7" s="20"/>
+      <c r="DB7" s="20"/>
+      <c r="DC7" s="20"/>
+      <c r="DD7" s="20"/>
+      <c r="DE7" s="20"/>
+      <c r="DF7" s="20"/>
+      <c r="DG7" s="20"/>
+      <c r="DH7" s="20"/>
+      <c r="DI7" s="20"/>
+      <c r="DJ7" s="20"/>
+      <c r="DK7" s="20"/>
+      <c r="DL7" s="20"/>
+      <c r="DM7" s="20"/>
+      <c r="DN7" s="20"/>
+      <c r="DO7" s="20"/>
+      <c r="DP7" s="20"/>
+      <c r="DQ7" s="20"/>
+      <c r="DR7" s="25"/>
+      <c r="DS7" s="55"/>
+      <c r="DT7" s="55"/>
     </row>
-    <row r="8" spans="1:124" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:124" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>500</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>9052125456</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T8" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="32">
         <v>9012367890</v>
       </c>
-      <c r="V8" s="33" t="s">
+      <c r="V8" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="X8" s="33" t="s">
+      <c r="X8" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="Y8" s="34" t="s">
+      <c r="Y8" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="Z8" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AA8" s="33" t="s">
+      <c r="AA8" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AD8" s="33" t="s">
+      <c r="AD8" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33" t="s">
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AH8" s="33" t="s">
+      <c r="AH8" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AI8" s="33" t="s">
+      <c r="AI8" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AJ8" s="33" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AK8" s="33" t="s">
+      <c r="AK8" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="AL8" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM8" s="33">
+      <c r="AL8" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM8" s="32">
         <v>250000</v>
       </c>
-      <c r="AN8" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO8" s="36">
+      <c r="AN8" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO8" s="35">
         <v>50</v>
       </c>
-      <c r="AP8" s="36" t="s">
+      <c r="AP8" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AQ8" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR8" s="36">
+      <c r="AQ8" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR8" s="35">
         <v>100</v>
       </c>
-      <c r="AS8" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT8" s="36">
+      <c r="AS8" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT8" s="35">
         <v>25</v>
       </c>
-      <c r="AU8" s="36" t="s">
+      <c r="AU8" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="AV8" s="21" t="s">
+      <c r="AV8" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AW8" s="33">
+      <c r="AW8" s="32">
         <v>1</v>
       </c>
-      <c r="AX8" s="33" t="s">
+      <c r="AX8" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="AY8" s="33" t="s">
+      <c r="AY8" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AZ8" s="33" t="s">
+      <c r="AZ8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="BA8" s="33">
+      <c r="BA8" s="32">
         <v>500</v>
       </c>
-      <c r="BB8" s="33">
+      <c r="BB8" s="32">
         <v>1</v>
       </c>
-      <c r="BC8" s="33" t="s">
+      <c r="BC8" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="BD8" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE8" s="33">
+      <c r="BD8" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE8" s="32">
         <v>250000</v>
       </c>
-      <c r="BF8" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG8" s="33">
+      <c r="BF8" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG8" s="32">
         <v>250000</v>
       </c>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33" t="s">
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="BO8" s="33">
+      <c r="BN8" s="32">
         <v>1</v>
       </c>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33" t="s">
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="BS8" s="33">
+      <c r="BR8" s="32">
         <v>500</v>
       </c>
-      <c r="BT8" s="33">
+      <c r="BS8" s="32">
         <v>35</v>
       </c>
-      <c r="BU8" s="33">
+      <c r="BT8" s="32">
         <v>35</v>
       </c>
-      <c r="BV8" s="33">
+      <c r="BU8" s="32">
         <v>35</v>
       </c>
-      <c r="BW8" s="33" t="s">
+      <c r="BV8" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="BX8" s="33" t="s">
+      <c r="BW8" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="BY8" s="33" t="s">
+      <c r="BX8" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="BZ8" s="33"/>
-      <c r="CA8" s="33"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="33"/>
-      <c r="CD8" s="33"/>
-      <c r="CE8" s="33"/>
-      <c r="CF8" s="33"/>
-      <c r="CG8" s="33"/>
-      <c r="CH8" s="33"/>
-      <c r="CI8" s="33"/>
-      <c r="CJ8" s="33"/>
-      <c r="CK8" s="33"/>
-      <c r="CL8" s="33"/>
-      <c r="CM8" s="33"/>
-      <c r="CN8" s="33"/>
-      <c r="CO8" s="33"/>
-      <c r="CP8" s="33"/>
-      <c r="CQ8" s="33"/>
-      <c r="CR8" s="33"/>
-      <c r="CS8" s="33"/>
-      <c r="CT8" s="33"/>
-      <c r="CU8" s="33"/>
-      <c r="CV8" s="33"/>
-      <c r="CW8" s="33"/>
-      <c r="CX8" s="33"/>
-      <c r="CY8" s="33"/>
-      <c r="CZ8" s="33"/>
-      <c r="DA8" s="33"/>
-      <c r="DB8" s="33"/>
-      <c r="DC8" s="33"/>
-      <c r="DD8" s="33"/>
-      <c r="DE8" s="33"/>
-      <c r="DF8" s="33"/>
-      <c r="DG8" s="33"/>
-      <c r="DH8" s="33"/>
-      <c r="DI8" s="33"/>
-      <c r="DJ8" s="33"/>
-      <c r="DK8" s="33"/>
-      <c r="DL8" s="33"/>
-      <c r="DM8" s="33"/>
-      <c r="DN8" s="33"/>
-      <c r="DO8" s="33"/>
-      <c r="DP8" s="33"/>
-      <c r="DQ8" s="33">
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="32"/>
+      <c r="CF8" s="32"/>
+      <c r="CG8" s="32"/>
+      <c r="CH8" s="32"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="32"/>
+      <c r="CK8" s="32"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="32"/>
+      <c r="CN8" s="32"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="32"/>
+      <c r="CQ8" s="32"/>
+      <c r="CR8" s="32"/>
+      <c r="CS8" s="32"/>
+      <c r="CT8" s="32"/>
+      <c r="CU8" s="32"/>
+      <c r="CV8" s="32"/>
+      <c r="CW8" s="32"/>
+      <c r="CX8" s="32"/>
+      <c r="CY8" s="32"/>
+      <c r="CZ8" s="32"/>
+      <c r="DA8" s="32"/>
+      <c r="DB8" s="32"/>
+      <c r="DC8" s="32"/>
+      <c r="DD8" s="32"/>
+      <c r="DE8" s="32"/>
+      <c r="DF8" s="32"/>
+      <c r="DG8" s="32"/>
+      <c r="DH8" s="32"/>
+      <c r="DI8" s="32"/>
+      <c r="DJ8" s="32"/>
+      <c r="DK8" s="32"/>
+      <c r="DL8" s="32"/>
+      <c r="DM8" s="32"/>
+      <c r="DN8" s="32"/>
+      <c r="DO8" s="32">
         <v>5</v>
       </c>
-      <c r="DR8" s="33">
+      <c r="DP8" s="32">
         <v>123456789</v>
       </c>
-      <c r="DS8" s="33"/>
-      <c r="DT8" s="37"/>
+      <c r="DQ8" s="32"/>
+      <c r="DR8" s="36"/>
+      <c r="DS8" s="55"/>
+      <c r="DT8" s="55"/>
     </row>
-    <row r="9" spans="1:124" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:124" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>10</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="21">
         <v>17601</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="Z9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AA9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AC9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD9" s="21" t="s">
+      <c r="AD9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE9" s="39" t="s">
+      <c r="AE9" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21" t="s">
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AH9" s="21">
+      <c r="AH9" s="20">
         <v>198823520</v>
       </c>
-      <c r="AI9" s="21" t="s">
+      <c r="AI9" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ9" s="21" t="s">
+      <c r="AJ9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK9" s="21" t="s">
+      <c r="AK9" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL9" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM9" s="21">
+      <c r="AL9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM9" s="20">
         <v>15</v>
       </c>
-      <c r="AN9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO9" s="25">
+      <c r="AN9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO9" s="24">
         <v>50</v>
       </c>
-      <c r="AP9" s="25" t="s">
+      <c r="AP9" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR9" s="25">
+      <c r="AQ9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR9" s="24">
         <v>100</v>
       </c>
-      <c r="AS9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT9" s="25">
+      <c r="AS9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT9" s="24">
         <v>25</v>
       </c>
-      <c r="AU9" s="25" t="s">
+      <c r="AU9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV9" s="25" t="s">
+      <c r="AV9" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AW9" s="21">
+      <c r="AW9" s="20">
         <v>1</v>
       </c>
-      <c r="AX9" s="21" t="s">
+      <c r="AX9" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY9" s="21" t="s">
+      <c r="AY9" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ9" s="21" t="s">
+      <c r="AZ9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA9" s="21">
+      <c r="BA9" s="20">
         <v>4</v>
       </c>
-      <c r="BB9" s="21">
+      <c r="BB9" s="20">
         <v>1</v>
       </c>
-      <c r="BC9" s="21" t="s">
+      <c r="BC9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD9" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE9" s="21">
+      <c r="BD9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE9" s="20">
         <v>15</v>
       </c>
-      <c r="BF9" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG9" s="21">
+      <c r="BF9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG9" s="20">
         <v>15</v>
       </c>
-      <c r="BH9" s="21" t="s">
+      <c r="BH9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21" t="s">
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO9" s="21">
+      <c r="BN9" s="20">
         <v>1</v>
       </c>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21" t="s">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS9" s="21">
+      <c r="BR9" s="20">
         <v>10</v>
       </c>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21"/>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21" t="s">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20"/>
+      <c r="BW9" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY9" s="21" t="s">
+      <c r="BX9" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ9" s="21"/>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21" t="s">
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20"/>
+      <c r="CA9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="CC9" s="21" t="s">
+      <c r="CB9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="CD9" s="21"/>
-      <c r="CE9" s="21" t="s">
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="CF9" s="40"/>
-      <c r="CG9" s="40"/>
-      <c r="CH9" s="40"/>
-      <c r="CI9" s="40"/>
-      <c r="CJ9" s="40"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
-      <c r="CP9" s="21"/>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
-      <c r="CT9" s="21"/>
-      <c r="CU9" s="21"/>
-      <c r="CV9" s="21"/>
-      <c r="CW9" s="21"/>
-      <c r="CX9" s="21"/>
-      <c r="CY9" s="21"/>
-      <c r="CZ9" s="21"/>
-      <c r="DA9" s="21"/>
-      <c r="DB9" s="21"/>
-      <c r="DC9" s="21"/>
-      <c r="DD9" s="21"/>
-      <c r="DE9" s="21"/>
-      <c r="DF9" s="21"/>
-      <c r="DG9" s="21"/>
-      <c r="DH9" s="21"/>
-      <c r="DI9" s="21"/>
-      <c r="DJ9" s="21"/>
-      <c r="DK9" s="21"/>
-      <c r="DL9" s="21"/>
-      <c r="DM9" s="21"/>
-      <c r="DN9" s="21"/>
-      <c r="DO9" s="21"/>
-      <c r="DP9" s="21"/>
-      <c r="DQ9" s="21"/>
-      <c r="DR9" s="21"/>
-      <c r="DS9" s="21"/>
-      <c r="DT9" s="26"/>
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
+      <c r="CH9" s="39"/>
+      <c r="CI9" s="39"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="20"/>
+      <c r="CQ9" s="20"/>
+      <c r="CR9" s="20"/>
+      <c r="CS9" s="20"/>
+      <c r="CT9" s="20"/>
+      <c r="CU9" s="20"/>
+      <c r="CV9" s="20"/>
+      <c r="CW9" s="20"/>
+      <c r="CX9" s="20"/>
+      <c r="CY9" s="20"/>
+      <c r="CZ9" s="20"/>
+      <c r="DA9" s="20"/>
+      <c r="DB9" s="20"/>
+      <c r="DC9" s="20"/>
+      <c r="DD9" s="20"/>
+      <c r="DE9" s="20"/>
+      <c r="DF9" s="20"/>
+      <c r="DG9" s="20"/>
+      <c r="DH9" s="20"/>
+      <c r="DI9" s="20"/>
+      <c r="DJ9" s="20"/>
+      <c r="DK9" s="20"/>
+      <c r="DL9" s="20"/>
+      <c r="DM9" s="20"/>
+      <c r="DN9" s="20"/>
+      <c r="DO9" s="20"/>
+      <c r="DP9" s="20"/>
+      <c r="DQ9" s="20"/>
+      <c r="DR9" s="25"/>
+      <c r="DS9" s="55"/>
+      <c r="DT9" s="55"/>
     </row>
     <row r="10" spans="1:124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>60</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="W10" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10" s="21">
         <v>32202</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="Z10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AA10" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC10" s="23" t="s">
+      <c r="AC10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD10" s="21" t="s">
+      <c r="AD10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21" t="s">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH10" s="21" t="s">
+      <c r="AH10" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI10" s="21" t="s">
+      <c r="AI10" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ10" s="21" t="s">
+      <c r="AJ10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK10" s="21" t="s">
+      <c r="AK10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM10" s="21">
+      <c r="AL10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM10" s="20">
         <v>2400</v>
       </c>
-      <c r="AN10" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO10" s="25">
+      <c r="AN10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO10" s="24">
         <v>50</v>
       </c>
-      <c r="AP10" s="25" t="s">
+      <c r="AP10" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ10" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR10" s="25">
+      <c r="AQ10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR10" s="24">
         <v>100</v>
       </c>
-      <c r="AS10" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT10" s="25">
+      <c r="AS10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT10" s="24">
         <v>25</v>
       </c>
-      <c r="AU10" s="25" t="s">
+      <c r="AU10" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV10" s="25" t="s">
+      <c r="AV10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AW10" s="21">
+      <c r="AW10" s="20">
         <v>1</v>
       </c>
-      <c r="AX10" s="21" t="s">
+      <c r="AX10" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY10" s="21" t="s">
+      <c r="AY10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ10" s="21" t="s">
+      <c r="AZ10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA10" s="21">
+      <c r="BA10" s="20">
         <v>60</v>
       </c>
-      <c r="BB10" s="21">
+      <c r="BB10" s="20">
         <v>10</v>
       </c>
-      <c r="BC10" s="21" t="s">
+      <c r="BC10" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE10" s="21">
+      <c r="BD10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE10" s="20">
         <v>240</v>
       </c>
-      <c r="BF10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG10" s="21">
+      <c r="BF10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG10" s="20">
         <v>2400</v>
       </c>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21" t="s">
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO10" s="21">
+      <c r="BN10" s="20">
         <v>1</v>
       </c>
-      <c r="BP10" s="21">
+      <c r="BO10" s="20">
         <v>2400</v>
       </c>
-      <c r="BQ10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR10" s="21" t="s">
+      <c r="BP10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS10" s="21">
+      <c r="BR10" s="20">
         <v>60</v>
       </c>
-      <c r="BT10" s="21">
+      <c r="BS10" s="20">
         <v>55</v>
       </c>
-      <c r="BU10" s="21">
+      <c r="BT10" s="20">
         <v>15</v>
       </c>
-      <c r="BV10" s="21">
+      <c r="BU10" s="20">
         <v>12</v>
       </c>
-      <c r="BW10" s="21" t="s">
+      <c r="BV10" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="BX10" s="21" t="s">
+      <c r="BW10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY10" s="21" t="s">
+      <c r="BX10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="40" t="s">
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="CG10" s="40"/>
-      <c r="CH10" s="40" t="s">
+      <c r="CF10" s="39"/>
+      <c r="CG10" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="CI10" s="40"/>
-      <c r="CJ10" s="40"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
-      <c r="CO10" s="21"/>
-      <c r="CP10" s="21"/>
-      <c r="CQ10" s="21"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
-      <c r="CT10" s="21"/>
-      <c r="CU10" s="21"/>
-      <c r="CV10" s="21"/>
-      <c r="CW10" s="21"/>
-      <c r="CX10" s="21"/>
-      <c r="CY10" s="21"/>
-      <c r="CZ10" s="21"/>
-      <c r="DA10" s="21"/>
-      <c r="DB10" s="21"/>
-      <c r="DC10" s="21"/>
-      <c r="DD10" s="21"/>
-      <c r="DE10" s="21"/>
-      <c r="DF10" s="21"/>
-      <c r="DG10" s="21"/>
-      <c r="DH10" s="21"/>
-      <c r="DI10" s="21"/>
-      <c r="DJ10" s="21"/>
-      <c r="DK10" s="21"/>
-      <c r="DL10" s="21"/>
-      <c r="DM10" s="21"/>
-      <c r="DN10" s="21"/>
-      <c r="DO10" s="21"/>
-      <c r="DP10" s="21"/>
-      <c r="DQ10" s="21"/>
-      <c r="DR10" s="21"/>
-      <c r="DS10" s="21"/>
-      <c r="DT10" s="26"/>
+      <c r="CH10" s="39"/>
+      <c r="CI10" s="39"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+      <c r="CL10" s="20"/>
+      <c r="CM10" s="20"/>
+      <c r="CN10" s="20"/>
+      <c r="CO10" s="20"/>
+      <c r="CP10" s="20"/>
+      <c r="CQ10" s="20"/>
+      <c r="CR10" s="20"/>
+      <c r="CS10" s="20"/>
+      <c r="CT10" s="20"/>
+      <c r="CU10" s="20"/>
+      <c r="CV10" s="20"/>
+      <c r="CW10" s="20"/>
+      <c r="CX10" s="20"/>
+      <c r="CY10" s="20"/>
+      <c r="CZ10" s="20"/>
+      <c r="DA10" s="20"/>
+      <c r="DB10" s="20"/>
+      <c r="DC10" s="20"/>
+      <c r="DD10" s="20"/>
+      <c r="DE10" s="20"/>
+      <c r="DF10" s="20"/>
+      <c r="DG10" s="20"/>
+      <c r="DH10" s="20"/>
+      <c r="DI10" s="20"/>
+      <c r="DJ10" s="20"/>
+      <c r="DK10" s="20"/>
+      <c r="DL10" s="20"/>
+      <c r="DM10" s="20"/>
+      <c r="DN10" s="20"/>
+      <c r="DO10" s="20"/>
+      <c r="DP10" s="20"/>
+      <c r="DQ10" s="20"/>
+      <c r="DR10" s="25"/>
+      <c r="DS10" s="55"/>
+      <c r="DT10" s="55"/>
     </row>
     <row r="11" spans="1:124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>60</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="V11" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W11" s="21" t="s">
+      <c r="W11" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="X11" s="21" t="s">
+      <c r="X11" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y11" s="21">
         <v>32202</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="Z11" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB11" s="23" t="s">
+      <c r="AB11" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC11" s="23" t="s">
+      <c r="AC11" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD11" s="21" t="s">
+      <c r="AD11" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21" t="s">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH11" s="21" t="s">
+      <c r="AH11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI11" s="21" t="s">
+      <c r="AI11" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ11" s="21" t="s">
+      <c r="AJ11" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK11" s="21" t="s">
+      <c r="AK11" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AL11" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM11" s="21">
+      <c r="AL11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM11" s="20">
         <v>2400</v>
       </c>
-      <c r="AN11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO11" s="25">
+      <c r="AN11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO11" s="24">
         <v>50</v>
       </c>
-      <c r="AP11" s="25" t="s">
+      <c r="AP11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR11" s="25">
+      <c r="AQ11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR11" s="24">
         <v>100</v>
       </c>
-      <c r="AS11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT11" s="25">
+      <c r="AS11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT11" s="24">
         <v>25</v>
       </c>
-      <c r="AU11" s="25" t="s">
+      <c r="AU11" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV11" s="25" t="s">
+      <c r="AV11" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AW11" s="21">
+      <c r="AW11" s="20">
         <v>1</v>
       </c>
-      <c r="AX11" s="21" t="s">
+      <c r="AX11" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY11" s="21" t="s">
+      <c r="AY11" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ11" s="21" t="s">
+      <c r="AZ11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA11" s="21">
+      <c r="BA11" s="20">
         <v>60</v>
       </c>
-      <c r="BB11" s="21">
+      <c r="BB11" s="20">
         <v>10</v>
       </c>
-      <c r="BC11" s="21" t="s">
+      <c r="BC11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD11" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE11" s="21">
+      <c r="BD11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE11" s="20">
         <v>240</v>
       </c>
-      <c r="BF11" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG11" s="21">
+      <c r="BF11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG11" s="20">
         <v>2400</v>
       </c>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21" t="s">
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO11" s="21">
+      <c r="BN11" s="20">
         <v>1</v>
       </c>
-      <c r="BP11" s="21">
+      <c r="BO11" s="20">
         <v>2400</v>
       </c>
-      <c r="BQ11" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR11" s="21" t="s">
+      <c r="BP11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BS11" s="21">
+      <c r="BR11" s="20">
         <v>60</v>
       </c>
-      <c r="BT11" s="21">
+      <c r="BS11" s="20">
         <v>55</v>
       </c>
-      <c r="BU11" s="21">
+      <c r="BT11" s="20">
         <v>15</v>
       </c>
-      <c r="BV11" s="21">
+      <c r="BU11" s="20">
         <v>12</v>
       </c>
-      <c r="BW11" s="21" t="s">
+      <c r="BV11" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="BX11" s="21" t="s">
+      <c r="BW11" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY11" s="21" t="s">
+      <c r="BX11" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ11" s="21"/>
-      <c r="CA11" s="21"/>
-      <c r="CB11" s="21"/>
-      <c r="CC11" s="21"/>
-      <c r="CD11" s="21"/>
-      <c r="CE11" s="21"/>
-      <c r="CF11" s="40" t="s">
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="CG11" s="40" t="s">
+      <c r="CF11" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="CH11" s="40" t="s">
+      <c r="CG11" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="CI11" s="40"/>
-      <c r="CJ11" s="40"/>
-      <c r="CK11" s="21"/>
-      <c r="CL11" s="21"/>
-      <c r="CM11" s="21"/>
-      <c r="CN11" s="21"/>
-      <c r="CO11" s="21"/>
-      <c r="CP11" s="21"/>
-      <c r="CQ11" s="21"/>
-      <c r="CR11" s="21"/>
-      <c r="CS11" s="21"/>
-      <c r="CT11" s="21"/>
-      <c r="CU11" s="21"/>
-      <c r="CV11" s="21"/>
-      <c r="CW11" s="21"/>
-      <c r="CX11" s="21"/>
-      <c r="CY11" s="21"/>
-      <c r="CZ11" s="21"/>
-      <c r="DA11" s="21"/>
-      <c r="DB11" s="21"/>
-      <c r="DC11" s="21"/>
-      <c r="DD11" s="21"/>
-      <c r="DE11" s="21"/>
-      <c r="DF11" s="21"/>
-      <c r="DG11" s="21"/>
-      <c r="DH11" s="21"/>
-      <c r="DI11" s="21"/>
-      <c r="DJ11" s="21"/>
-      <c r="DK11" s="21"/>
-      <c r="DL11" s="21"/>
-      <c r="DM11" s="21"/>
-      <c r="DN11" s="21"/>
-      <c r="DO11" s="21"/>
-      <c r="DP11" s="21"/>
-      <c r="DQ11" s="21"/>
-      <c r="DR11" s="21"/>
-      <c r="DS11" s="21"/>
-      <c r="DT11" s="26"/>
+      <c r="CH11" s="39"/>
+      <c r="CI11" s="39"/>
+      <c r="CJ11" s="20"/>
+      <c r="CK11" s="20"/>
+      <c r="CL11" s="20"/>
+      <c r="CM11" s="20"/>
+      <c r="CN11" s="20"/>
+      <c r="CO11" s="20"/>
+      <c r="CP11" s="20"/>
+      <c r="CQ11" s="20"/>
+      <c r="CR11" s="20"/>
+      <c r="CS11" s="20"/>
+      <c r="CT11" s="20"/>
+      <c r="CU11" s="20"/>
+      <c r="CV11" s="20"/>
+      <c r="CW11" s="20"/>
+      <c r="CX11" s="20"/>
+      <c r="CY11" s="20"/>
+      <c r="CZ11" s="20"/>
+      <c r="DA11" s="20"/>
+      <c r="DB11" s="20"/>
+      <c r="DC11" s="20"/>
+      <c r="DD11" s="20"/>
+      <c r="DE11" s="20"/>
+      <c r="DF11" s="20"/>
+      <c r="DG11" s="20"/>
+      <c r="DH11" s="20"/>
+      <c r="DI11" s="20"/>
+      <c r="DJ11" s="20"/>
+      <c r="DK11" s="20"/>
+      <c r="DL11" s="20"/>
+      <c r="DM11" s="20"/>
+      <c r="DN11" s="20"/>
+      <c r="DO11" s="20"/>
+      <c r="DP11" s="20"/>
+      <c r="DQ11" s="20"/>
+      <c r="DR11" s="25"/>
+      <c r="DS11" s="55"/>
+      <c r="DT11" s="55"/>
     </row>
-    <row r="12" spans="1:124" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:124" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>20</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U12" s="21">
+      <c r="U12" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="V12" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="W12" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="X12" s="21" t="s">
+      <c r="X12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Y12" s="22">
+      <c r="Y12" s="21">
         <v>17601</v>
       </c>
-      <c r="Z12" s="21" t="s">
+      <c r="Z12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AA12" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB12" s="23" t="s">
+      <c r="AB12" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC12" s="23" t="s">
+      <c r="AC12" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD12" s="21" t="s">
+      <c r="AD12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE12" s="39" t="s">
+      <c r="AE12" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21" t="s">
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" s="21" t="s">
+      <c r="AH12" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI12" s="21" t="s">
+      <c r="AI12" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ12" s="21" t="s">
+      <c r="AJ12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK12" s="21" t="s">
+      <c r="AK12" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="AL12" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM12" s="21">
+      <c r="AL12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM12" s="20">
         <v>15</v>
       </c>
-      <c r="AN12" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO12" s="25">
+      <c r="AN12" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO12" s="24">
         <v>50</v>
       </c>
-      <c r="AP12" s="25" t="s">
+      <c r="AP12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ12" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR12" s="25">
+      <c r="AQ12" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR12" s="24">
         <v>100</v>
       </c>
-      <c r="AS12" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT12" s="25">
+      <c r="AS12" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT12" s="24">
         <v>25</v>
       </c>
-      <c r="AU12" s="25" t="s">
+      <c r="AU12" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV12" s="25" t="s">
+      <c r="AV12" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AW12" s="21">
+      <c r="AW12" s="20">
         <v>1</v>
       </c>
-      <c r="AX12" s="21" t="s">
+      <c r="AX12" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AY12" s="21" t="s">
+      <c r="AY12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ12" s="21" t="s">
+      <c r="AZ12" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BA12" s="21">
+      <c r="BA12" s="20">
         <v>20</v>
       </c>
-      <c r="BB12" s="21">
+      <c r="BB12" s="20">
         <v>1</v>
       </c>
-      <c r="BC12" s="21" t="s">
+      <c r="BC12" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD12" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE12" s="21">
+      <c r="BD12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE12" s="20">
         <v>15</v>
       </c>
-      <c r="BF12" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG12" s="21">
+      <c r="BF12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG12" s="20">
         <v>15</v>
       </c>
-      <c r="BH12" s="21" t="s">
+      <c r="BH12" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="21"/>
-      <c r="BM12" s="21"/>
-      <c r="BN12" s="21" t="s">
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BO12" s="21">
+      <c r="BN12" s="20">
         <v>1</v>
       </c>
-      <c r="BP12" s="21"/>
-      <c r="BQ12" s="21"/>
-      <c r="BR12" s="21" t="s">
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BS12" s="21">
+      <c r="BR12" s="20">
         <v>20</v>
       </c>
-      <c r="BT12" s="21"/>
-      <c r="BU12" s="21"/>
-      <c r="BV12" s="21"/>
-      <c r="BW12" s="21"/>
-      <c r="BX12" s="21" t="s">
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY12" s="21" t="s">
+      <c r="BX12" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ12" s="21"/>
-      <c r="CA12" s="21"/>
-      <c r="CB12" s="21"/>
-      <c r="CC12" s="21"/>
-      <c r="CD12" s="21">
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+      <c r="CC12" s="20">
         <v>123456789</v>
       </c>
-      <c r="CE12" s="21"/>
-      <c r="CF12" s="40"/>
-      <c r="CG12" s="40"/>
-      <c r="CH12" s="40"/>
-      <c r="CI12" s="40"/>
-      <c r="CJ12" s="40"/>
-      <c r="CK12" s="21"/>
-      <c r="CL12" s="21"/>
-      <c r="CM12" s="21"/>
-      <c r="CN12" s="21"/>
-      <c r="CO12" s="21"/>
-      <c r="CP12" s="21"/>
-      <c r="CQ12" s="21"/>
-      <c r="CR12" s="21"/>
-      <c r="CS12" s="21"/>
-      <c r="CT12" s="21"/>
-      <c r="CU12" s="21"/>
-      <c r="CV12" s="21"/>
-      <c r="CW12" s="21"/>
-      <c r="CX12" s="21"/>
-      <c r="CY12" s="21"/>
-      <c r="CZ12" s="21"/>
-      <c r="DA12" s="21"/>
-      <c r="DB12" s="21"/>
-      <c r="DC12" s="21"/>
-      <c r="DD12" s="21"/>
-      <c r="DE12" s="21"/>
-      <c r="DF12" s="21"/>
-      <c r="DG12" s="21"/>
-      <c r="DH12" s="21"/>
-      <c r="DI12" s="21"/>
-      <c r="DJ12" s="21"/>
-      <c r="DK12" s="21"/>
-      <c r="DL12" s="21"/>
-      <c r="DM12" s="21"/>
-      <c r="DN12" s="21"/>
-      <c r="DO12" s="21"/>
-      <c r="DP12" s="21"/>
-      <c r="DQ12" s="21"/>
-      <c r="DR12" s="21"/>
-      <c r="DS12" s="21"/>
-      <c r="DT12" s="26"/>
+      <c r="CD12" s="20"/>
+      <c r="CE12" s="39"/>
+      <c r="CF12" s="39"/>
+      <c r="CG12" s="39"/>
+      <c r="CH12" s="39"/>
+      <c r="CI12" s="39"/>
+      <c r="CJ12" s="20"/>
+      <c r="CK12" s="20"/>
+      <c r="CL12" s="20"/>
+      <c r="CM12" s="20"/>
+      <c r="CN12" s="20"/>
+      <c r="CO12" s="20"/>
+      <c r="CP12" s="20"/>
+      <c r="CQ12" s="20"/>
+      <c r="CR12" s="20"/>
+      <c r="CS12" s="20"/>
+      <c r="CT12" s="20"/>
+      <c r="CU12" s="20"/>
+      <c r="CV12" s="20"/>
+      <c r="CW12" s="20"/>
+      <c r="CX12" s="20"/>
+      <c r="CY12" s="20"/>
+      <c r="CZ12" s="20"/>
+      <c r="DA12" s="20"/>
+      <c r="DB12" s="20"/>
+      <c r="DC12" s="20"/>
+      <c r="DD12" s="20"/>
+      <c r="DE12" s="20"/>
+      <c r="DF12" s="20"/>
+      <c r="DG12" s="20"/>
+      <c r="DH12" s="20"/>
+      <c r="DI12" s="20"/>
+      <c r="DJ12" s="20"/>
+      <c r="DK12" s="20"/>
+      <c r="DL12" s="20"/>
+      <c r="DM12" s="20"/>
+      <c r="DN12" s="20"/>
+      <c r="DO12" s="20"/>
+      <c r="DP12" s="20"/>
+      <c r="DQ12" s="20"/>
+      <c r="DR12" s="25"/>
+      <c r="DS12" s="55"/>
+      <c r="DT12" s="55"/>
     </row>
-    <row r="13" spans="1:124" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:124" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>500</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="V13" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="W13" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="X13" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="Y13" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="Z13" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AA13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB13" s="23" t="s">
+      <c r="AB13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC13" s="23" t="s">
+      <c r="AC13" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD13" s="21" t="s">
+      <c r="AD13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE13" s="39" t="s">
+      <c r="AE13" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21" t="s">
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH13" s="21" t="s">
+      <c r="AH13" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI13" s="21" t="s">
+      <c r="AI13" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ13" s="21" t="s">
+      <c r="AJ13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK13" s="21" t="s">
+      <c r="AK13" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="AL13" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM13" s="21">
+      <c r="AL13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM13" s="20">
         <v>250000</v>
       </c>
-      <c r="AN13" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO13" s="25">
+      <c r="AN13" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO13" s="24">
         <v>50</v>
       </c>
-      <c r="AP13" s="25" t="s">
+      <c r="AP13" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ13" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR13" s="25">
+      <c r="AQ13" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR13" s="24">
         <v>100</v>
       </c>
-      <c r="AS13" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT13" s="25">
+      <c r="AS13" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT13" s="24">
         <v>25</v>
       </c>
-      <c r="AU13" s="25" t="s">
+      <c r="AU13" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV13" s="25" t="s">
+      <c r="AV13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AW13" s="21">
+      <c r="AW13" s="20">
         <v>1</v>
       </c>
-      <c r="AX13" s="21" t="s">
+      <c r="AX13" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AY13" s="21" t="s">
+      <c r="AY13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ13" s="21" t="s">
+      <c r="AZ13" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="BA13" s="21">
+      <c r="BA13" s="20">
         <v>500</v>
       </c>
-      <c r="BB13" s="21">
+      <c r="BB13" s="20">
         <v>1</v>
       </c>
-      <c r="BC13" s="21" t="s">
+      <c r="BC13" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD13" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE13" s="21">
+      <c r="BD13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE13" s="20">
         <v>250000</v>
       </c>
-      <c r="BF13" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG13" s="21">
+      <c r="BF13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG13" s="20">
         <v>250000</v>
       </c>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21">
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN13" s="20">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR13" s="20">
+        <v>500</v>
+      </c>
+      <c r="BS13" s="20">
+        <v>35</v>
+      </c>
+      <c r="BT13" s="20">
+        <v>35</v>
+      </c>
+      <c r="BU13" s="20">
+        <v>35</v>
+      </c>
+      <c r="BV13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="BW13" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX13" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+      <c r="CC13" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="CD13" s="20"/>
+      <c r="CE13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="20"/>
+      <c r="CI13" s="20"/>
+      <c r="CJ13" s="20"/>
+      <c r="CK13" s="20"/>
+      <c r="CL13" s="20"/>
+      <c r="CM13" s="20"/>
+      <c r="CN13" s="20"/>
+      <c r="CO13" s="20"/>
+      <c r="CP13" s="20"/>
+      <c r="CQ13" s="20"/>
+      <c r="CR13" s="20"/>
+      <c r="CS13" s="20"/>
+      <c r="CT13" s="20"/>
+      <c r="CU13" s="20"/>
+      <c r="CV13" s="20"/>
+      <c r="CW13" s="20"/>
+      <c r="CX13" s="20"/>
+      <c r="CY13" s="20"/>
+      <c r="CZ13" s="20"/>
+      <c r="DA13" s="20"/>
+      <c r="DB13" s="20"/>
+      <c r="DC13" s="20"/>
+      <c r="DD13" s="20"/>
+      <c r="DE13" s="20"/>
+      <c r="DF13" s="20"/>
+      <c r="DG13" s="20"/>
+      <c r="DH13" s="20"/>
+      <c r="DI13" s="20"/>
+      <c r="DJ13" s="20"/>
+      <c r="DK13" s="20"/>
+      <c r="DL13" s="20"/>
+      <c r="DM13" s="20"/>
+      <c r="DN13" s="20"/>
+      <c r="DO13" s="20">
+        <v>5</v>
+      </c>
+      <c r="DP13" s="20">
+        <v>123456789</v>
+      </c>
+      <c r="DQ13" s="20"/>
+      <c r="DR13" s="25"/>
+      <c r="DS13" s="55">
         <v>42</v>
       </c>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO13" s="21">
-        <v>1</v>
-      </c>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS13" s="21">
-        <v>500</v>
-      </c>
-      <c r="BT13" s="21">
-        <v>35</v>
-      </c>
-      <c r="BU13" s="21">
-        <v>35</v>
-      </c>
-      <c r="BV13" s="21">
-        <v>35</v>
-      </c>
-      <c r="BW13" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX13" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="BY13" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="BZ13" s="21"/>
-      <c r="CA13" s="21"/>
-      <c r="CB13" s="21"/>
-      <c r="CC13" s="21"/>
-      <c r="CD13" s="21">
-        <v>123456789</v>
-      </c>
-      <c r="CE13" s="21"/>
-      <c r="CF13" s="21"/>
-      <c r="CG13" s="21"/>
-      <c r="CH13" s="21"/>
-      <c r="CI13" s="21"/>
-      <c r="CJ13" s="21"/>
-      <c r="CK13" s="21"/>
-      <c r="CL13" s="21"/>
-      <c r="CM13" s="21"/>
-      <c r="CN13" s="21"/>
-      <c r="CO13" s="21"/>
-      <c r="CP13" s="21"/>
-      <c r="CQ13" s="21"/>
-      <c r="CR13" s="21"/>
-      <c r="CS13" s="21"/>
-      <c r="CT13" s="21"/>
-      <c r="CU13" s="21"/>
-      <c r="CV13" s="21"/>
-      <c r="CW13" s="21"/>
-      <c r="CX13" s="21"/>
-      <c r="CY13" s="21"/>
-      <c r="CZ13" s="21"/>
-      <c r="DA13" s="21"/>
-      <c r="DB13" s="21"/>
-      <c r="DC13" s="21"/>
-      <c r="DD13" s="21"/>
-      <c r="DE13" s="21"/>
-      <c r="DF13" s="21"/>
-      <c r="DG13" s="21"/>
-      <c r="DH13" s="21"/>
-      <c r="DI13" s="21"/>
-      <c r="DJ13" s="21"/>
-      <c r="DK13" s="21"/>
-      <c r="DL13" s="21"/>
-      <c r="DM13" s="21"/>
-      <c r="DN13" s="21"/>
-      <c r="DO13" s="21"/>
-      <c r="DP13" s="21"/>
-      <c r="DQ13" s="21">
-        <v>5</v>
-      </c>
-      <c r="DR13" s="21">
-        <v>123456789</v>
-      </c>
-      <c r="DS13" s="21"/>
-      <c r="DT13" s="26"/>
+      <c r="DT13" s="55"/>
     </row>
-    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:124" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>0.5</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <v>9052125456</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="20">
         <v>9012367890</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="V14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="W14" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="X14" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="21" t="s">
+      <c r="Z14" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AA14" s="21" t="s">
+      <c r="AA14" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AB14" s="23" t="s">
+      <c r="AB14" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC14" s="23" t="s">
+      <c r="AC14" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AD14" s="21" t="s">
+      <c r="AD14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE14" s="39" t="s">
+      <c r="AE14" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21" t="s">
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AH14" s="21" t="s">
+      <c r="AH14" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AI14" s="21" t="s">
+      <c r="AI14" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ14" s="21" t="s">
+      <c r="AJ14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AK14" s="21" t="s">
+      <c r="AK14" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="AL14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM14" s="21">
+      <c r="AL14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM14" s="20">
         <v>2000</v>
       </c>
-      <c r="AN14" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO14" s="25">
+      <c r="AN14" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO14" s="24">
         <v>50</v>
       </c>
-      <c r="AP14" s="25" t="s">
+      <c r="AP14" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AQ14" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR14" s="25">
+      <c r="AQ14" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR14" s="24">
         <v>100</v>
       </c>
-      <c r="AS14" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT14" s="25">
+      <c r="AS14" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT14" s="24">
         <v>25</v>
       </c>
-      <c r="AU14" s="25" t="s">
+      <c r="AU14" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="21">
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="20">
         <v>1</v>
       </c>
-      <c r="AX14" s="21" t="s">
+      <c r="AX14" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AY14" s="21" t="s">
+      <c r="AY14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AZ14" s="21" t="s">
+      <c r="AZ14" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BA14" s="21">
+      <c r="BA14" s="20">
         <v>10</v>
       </c>
-      <c r="BB14" s="21">
+      <c r="BB14" s="20">
         <v>1</v>
       </c>
-      <c r="BC14" s="21" t="s">
+      <c r="BC14" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BD14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE14" s="21">
+      <c r="BD14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE14" s="20">
         <v>100</v>
       </c>
-      <c r="BF14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG14" s="21">
+      <c r="BF14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG14" s="20">
         <v>2000</v>
       </c>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21" t="s">
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="BO14" s="21">
+      <c r="BN14" s="20">
         <v>1</v>
       </c>
-      <c r="BP14" s="21">
+      <c r="BO14" s="20">
         <v>100</v>
       </c>
-      <c r="BQ14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR14" s="21" t="s">
+      <c r="BP14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ14" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BS14" s="21">
+      <c r="BR14" s="20">
         <v>10</v>
       </c>
-      <c r="BT14" s="21">
+      <c r="BS14" s="20">
         <v>20</v>
       </c>
-      <c r="BU14" s="21">
+      <c r="BT14" s="20">
         <v>25</v>
       </c>
-      <c r="BV14" s="21">
+      <c r="BU14" s="20">
         <v>20</v>
       </c>
-      <c r="BW14" s="21" t="s">
+      <c r="BV14" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="BX14" s="21" t="s">
+      <c r="BW14" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BY14" s="21" t="s">
+      <c r="BX14" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BZ14" s="21"/>
-      <c r="CA14" s="21"/>
-      <c r="CB14" s="21" t="s">
+      <c r="BY14" s="20"/>
+      <c r="BZ14" s="20"/>
+      <c r="CA14" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="CB14" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="CC14" s="20"/>
+      <c r="CD14" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="CC14" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="21"/>
-      <c r="CI14" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="CJ14" s="28" t="s">
+      <c r="CI14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="CK14" s="28">
+      <c r="CJ14" s="27">
         <v>1234567890</v>
       </c>
-      <c r="CL14" s="28" t="s">
+      <c r="CK14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="CM14" s="28" t="s">
+      <c r="CL14" s="27">
+        <v>8975898616</v>
+      </c>
+      <c r="CM14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN14" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="CO14" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="CP14" s="27">
+        <v>44202</v>
+      </c>
+      <c r="CQ14" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="CR14" s="20"/>
+      <c r="CS14" s="20"/>
+      <c r="CT14" s="20"/>
+      <c r="CU14" s="20"/>
+      <c r="CV14" s="20"/>
+      <c r="CW14" s="20"/>
+      <c r="CX14" s="20"/>
+      <c r="CY14" s="20"/>
+      <c r="CZ14" s="20"/>
+      <c r="DA14" s="20"/>
+      <c r="DB14" s="20"/>
+      <c r="DC14" s="20"/>
+      <c r="DD14" s="20"/>
+      <c r="DE14" s="20"/>
+      <c r="DF14" s="20"/>
+      <c r="DG14" s="20"/>
+      <c r="DH14" s="20"/>
+      <c r="DI14" s="20"/>
+      <c r="DJ14" s="20"/>
+      <c r="DK14" s="20"/>
+      <c r="DL14" s="20"/>
+      <c r="DM14" s="20"/>
+      <c r="DN14" s="20"/>
+      <c r="DO14" s="20"/>
+      <c r="DP14" s="20"/>
+      <c r="DQ14" s="20"/>
+      <c r="DR14" s="25"/>
+      <c r="DS14" s="55"/>
+      <c r="DT14" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="CN14" s="28">
-        <v>8975898616</v>
-      </c>
-      <c r="CO14" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="CP14" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="CQ14" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="CR14" s="28">
-        <v>44202</v>
-      </c>
-      <c r="CS14" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="CT14" s="21"/>
-      <c r="CU14" s="21"/>
-      <c r="CV14" s="21"/>
-      <c r="CW14" s="21"/>
-      <c r="CX14" s="21"/>
-      <c r="CY14" s="21"/>
-      <c r="CZ14" s="21"/>
-      <c r="DA14" s="21"/>
-      <c r="DB14" s="21"/>
-      <c r="DC14" s="21"/>
-      <c r="DD14" s="21"/>
-      <c r="DE14" s="21"/>
-      <c r="DF14" s="21"/>
-      <c r="DG14" s="21"/>
-      <c r="DH14" s="21"/>
-      <c r="DI14" s="21"/>
-      <c r="DJ14" s="21"/>
-      <c r="DK14" s="21"/>
-      <c r="DL14" s="21"/>
-      <c r="DM14" s="21"/>
-      <c r="DN14" s="21"/>
-      <c r="DO14" s="21"/>
-      <c r="DP14" s="21"/>
-      <c r="DQ14" s="21"/>
-      <c r="DR14" s="21"/>
-      <c r="DS14" s="21"/>
-      <c r="DT14" s="26"/>
     </row>
-    <row r="15" spans="1:124" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="44">
+        <v>9052125456</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="T15" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="U15" s="44">
+        <v>9012367890</v>
+      </c>
+      <c r="V15" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="W15" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="X15" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y15" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z15" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA15" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC15" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD15" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH15" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI15" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ15" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL15" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM15" s="44">
+        <v>2000</v>
+      </c>
+      <c r="AN15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO15" s="48">
+        <v>50</v>
+      </c>
+      <c r="AP15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR15" s="48">
+        <v>100</v>
+      </c>
+      <c r="AS15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT15" s="48">
+        <v>25</v>
+      </c>
+      <c r="AU15" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="44">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY15" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ15" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA15" s="44">
+        <v>10</v>
+      </c>
+      <c r="BB15" s="44">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD15" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE15" s="44">
+        <v>100</v>
+      </c>
+      <c r="BF15" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG15" s="44">
+        <v>2000</v>
+      </c>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="44"/>
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN15" s="44">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="44">
+        <v>100</v>
+      </c>
+      <c r="BP15" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ15" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR15" s="44">
+        <v>10</v>
+      </c>
+      <c r="BS15" s="44">
+        <v>20</v>
+      </c>
+      <c r="BT15" s="44">
+        <v>25</v>
+      </c>
+      <c r="BU15" s="44">
+        <v>20</v>
+      </c>
+      <c r="BV15" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="BW15" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX15" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="46">
-        <v>9052125456</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="O15" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="P15" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q15" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="R15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="S15" s="45" t="s">
+      <c r="CB15" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="T15" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="U15" s="46">
-        <v>9012367890</v>
-      </c>
-      <c r="V15" s="46" t="s">
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE15" s="44"/>
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="CI15" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ15" s="49">
+        <v>1234567890</v>
+      </c>
+      <c r="CK15" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="CL15" s="49">
+        <v>8975898616</v>
+      </c>
+      <c r="CM15" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="W15" s="46" t="s">
+      <c r="CN15" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="X15" s="46" t="s">
+      <c r="CO15" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="Y15" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z15" s="46" t="s">
+      <c r="CP15" s="49">
+        <v>44202</v>
+      </c>
+      <c r="CQ15" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="AA15" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB15" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC15" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE15" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH15" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI15" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK15" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL15" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM15" s="46">
-        <v>2000</v>
-      </c>
-      <c r="AN15" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO15" s="50">
-        <v>50</v>
-      </c>
-      <c r="AP15" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ15" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR15" s="50">
-        <v>100</v>
-      </c>
-      <c r="AS15" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT15" s="50">
-        <v>25</v>
-      </c>
-      <c r="AU15" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="46">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="AY15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ15" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA15" s="46">
-        <v>10</v>
-      </c>
-      <c r="BB15" s="46">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD15" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE15" s="46">
-        <v>100</v>
-      </c>
-      <c r="BF15" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG15" s="46">
-        <v>2000</v>
-      </c>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="46"/>
-      <c r="BJ15" s="46"/>
-      <c r="BK15" s="46"/>
-      <c r="BL15" s="46"/>
-      <c r="BM15" s="46"/>
-      <c r="BN15" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="BO15" s="46">
-        <v>1</v>
-      </c>
-      <c r="BP15" s="46">
-        <v>100</v>
-      </c>
-      <c r="BQ15" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR15" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="BS15" s="46">
-        <v>10</v>
-      </c>
-      <c r="BT15" s="46">
-        <v>20</v>
-      </c>
-      <c r="BU15" s="46">
-        <v>25</v>
-      </c>
-      <c r="BV15" s="46">
-        <v>20</v>
-      </c>
-      <c r="BW15" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="BX15" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="BY15" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="BZ15" s="46"/>
-      <c r="CA15" s="46"/>
-      <c r="CB15" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="CC15" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="CD15" s="46"/>
-      <c r="CE15" s="46"/>
-      <c r="CF15" s="46"/>
-      <c r="CG15" s="46"/>
-      <c r="CH15" s="46"/>
-      <c r="CI15" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="CJ15" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="CK15" s="51">
-        <v>1234567890</v>
-      </c>
-      <c r="CL15" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="CM15" s="51" t="s">
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="44"/>
+      <c r="CY15" s="44"/>
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="44"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
+      <c r="DF15" s="44"/>
+      <c r="DG15" s="44"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="44"/>
+      <c r="DK15" s="44"/>
+      <c r="DL15" s="44"/>
+      <c r="DM15" s="44"/>
+      <c r="DN15" s="44"/>
+      <c r="DO15" s="44">
+        <v>5</v>
+      </c>
+      <c r="DP15" s="44">
+        <v>123456789</v>
+      </c>
+      <c r="DQ15" s="44"/>
+      <c r="DR15" s="50"/>
+      <c r="DS15" s="57"/>
+      <c r="DT15" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="CN15" s="51">
-        <v>8975898616</v>
-      </c>
-      <c r="CO15" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="CP15" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="CQ15" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="CR15" s="51">
-        <v>44202</v>
-      </c>
-      <c r="CS15" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="CT15" s="46"/>
-      <c r="CU15" s="46"/>
-      <c r="CV15" s="46"/>
-      <c r="CW15" s="46"/>
-      <c r="CX15" s="46"/>
-      <c r="CY15" s="46"/>
-      <c r="CZ15" s="46"/>
-      <c r="DA15" s="46"/>
-      <c r="DB15" s="46"/>
-      <c r="DC15" s="46"/>
-      <c r="DD15" s="46"/>
-      <c r="DE15" s="46"/>
-      <c r="DF15" s="46"/>
-      <c r="DG15" s="46"/>
-      <c r="DH15" s="46"/>
-      <c r="DI15" s="46"/>
-      <c r="DJ15" s="46"/>
-      <c r="DK15" s="46"/>
-      <c r="DL15" s="46"/>
-      <c r="DM15" s="46"/>
-      <c r="DN15" s="46"/>
-      <c r="DO15" s="46"/>
-      <c r="DP15" s="46"/>
-      <c r="DQ15" s="46">
-        <v>5</v>
-      </c>
-      <c r="DR15" s="46">
-        <v>123456789</v>
-      </c>
-      <c r="DS15" s="46"/>
-      <c r="DT15" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="DD4" r:id="rId1" display="bharath216@yahoo.com"/>
+    <hyperlink ref="DB4" r:id="rId1" display="bharath216@yahoo.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="230">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>IP-1012</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_TRAFFIC_IN_ARMS_REGULATIONS</t>
   </si>
   <si>
     <t>IPF-1002</t>
@@ -1211,16 +1208,16 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
@@ -1546,9 +1543,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:DT15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BW1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BY19" sqref="BY19"/>
+      <selection pane="bottomLeft" activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2379,7 +2376,7 @@
       <c r="A3" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -2637,7 +2634,7 @@
       <c r="A4" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="18" t="s">
         <v>119</v>
       </c>
@@ -2921,7 +2918,7 @@
       <c r="A5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
@@ -3157,7 +3154,7 @@
       <c r="A6" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
@@ -3407,7 +3404,7 @@
       <c r="A7" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="18" t="s">
         <v>119</v>
       </c>
@@ -3667,7 +3664,7 @@
       <c r="A8" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="30" t="s">
         <v>119</v>
       </c>
@@ -3927,7 +3924,7 @@
       <c r="A9" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="18" t="s">
         <v>119</v>
       </c>
@@ -4185,7 +4182,7 @@
       <c r="A10" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="18" t="s">
         <v>119</v>
       </c>
@@ -4449,7 +4446,7 @@
       <c r="A11" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="18" t="s">
         <v>119</v>
       </c>
@@ -4715,7 +4712,7 @@
       <c r="A12" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
@@ -4798,9 +4795,7 @@
       <c r="AD12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE12" s="38" t="s">
-        <v>216</v>
-      </c>
+      <c r="AE12" s="38"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20" t="s">
         <v>138</v>
@@ -4969,12 +4964,12 @@
       <c r="A13" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
@@ -5017,7 +5012,7 @@
         <v>132</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T13" s="20" t="s">
         <v>133</v>
@@ -5052,9 +5047,7 @@
       <c r="AD13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE13" s="38" t="s">
-        <v>216</v>
-      </c>
+      <c r="AE13" s="38"/>
       <c r="AF13" s="20"/>
       <c r="AG13" s="20" t="s">
         <v>138</v>
@@ -5235,12 +5228,12 @@
       <c r="A14" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
@@ -5250,7 +5243,7 @@
         <v>123</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>173</v>
@@ -5283,7 +5276,7 @@
         <v>132</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T14" s="20" t="s">
         <v>133</v>
@@ -5295,13 +5288,13 @@
         <v>128</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X14" s="20" t="s">
         <v>186</v>
       </c>
       <c r="Y14" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z14" s="20" t="s">
         <v>137</v>
@@ -5319,7 +5312,7 @@
         <v>132</v>
       </c>
       <c r="AE14" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF14" s="20"/>
       <c r="AG14" s="20" t="s">
@@ -5407,7 +5400,7 @@
       <c r="BK14" s="20"/>
       <c r="BL14" s="20"/>
       <c r="BM14" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BN14" s="20">
         <v>1</v>
@@ -5434,7 +5427,7 @@
         <v>20</v>
       </c>
       <c r="BV14" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BW14" s="20" t="s">
         <v>154</v>
@@ -5444,11 +5437,11 @@
       </c>
       <c r="BY14" s="20"/>
       <c r="BZ14" s="20"/>
-      <c r="CA14" s="61" t="s">
+      <c r="CA14" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="CB14" s="60" t="s">
         <v>229</v>
-      </c>
-      <c r="CB14" s="62" t="s">
-        <v>230</v>
       </c>
       <c r="CC14" s="20"/>
       <c r="CD14" s="20" t="s">
@@ -5458,7 +5451,7 @@
       <c r="CF14" s="20"/>
       <c r="CG14" s="20"/>
       <c r="CH14" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CI14" s="27" t="s">
         <v>164</v>
@@ -5476,7 +5469,7 @@
         <v>128</v>
       </c>
       <c r="CN14" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CO14" s="27" t="s">
         <v>186</v>
@@ -5523,12 +5516,12 @@
       <c r="A15" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="42" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44" t="s">
@@ -5571,7 +5564,7 @@
         <v>132</v>
       </c>
       <c r="S15" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T15" s="44" t="s">
         <v>133</v>
@@ -5583,13 +5576,13 @@
         <v>128</v>
       </c>
       <c r="W15" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X15" s="44" t="s">
         <v>186</v>
       </c>
       <c r="Y15" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z15" s="44" t="s">
         <v>137</v>
@@ -5607,7 +5600,7 @@
         <v>132</v>
       </c>
       <c r="AE15" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="44" t="s">
@@ -5695,7 +5688,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
       <c r="BM15" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BN15" s="44">
         <v>1</v>
@@ -5722,7 +5715,7 @@
         <v>20</v>
       </c>
       <c r="BV15" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BW15" s="44" t="s">
         <v>154</v>
@@ -5732,11 +5725,11 @@
       </c>
       <c r="BY15" s="44"/>
       <c r="BZ15" s="44"/>
-      <c r="CA15" s="61" t="s">
+      <c r="CA15" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="CB15" s="60" t="s">
         <v>229</v>
-      </c>
-      <c r="CB15" s="62" t="s">
-        <v>230</v>
       </c>
       <c r="CC15" s="44"/>
       <c r="CD15" s="44" t="s">
@@ -5746,7 +5739,7 @@
       <c r="CF15" s="44"/>
       <c r="CG15" s="44"/>
       <c r="CH15" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CI15" s="49" t="s">
         <v>164</v>
@@ -5764,7 +5757,7 @@
         <v>128</v>
       </c>
       <c r="CN15" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CO15" s="49" t="s">
         <v>186</v>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Shipworks2\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>PASSPORT</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_TRAFFIC_IN_ARMS_REGULATIONS</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA32" sqref="AA32"/>
+      <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4795,7 +4798,9 @@
       <c r="AD12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE12" s="38"/>
+      <c r="AE12" s="38" t="s">
+        <v>230</v>
+      </c>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20" t="s">
         <v>138</v>
@@ -5047,7 +5052,9 @@
       <c r="AD13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AE13" s="38"/>
+      <c r="AE13" s="38" t="s">
+        <v>230</v>
+      </c>
       <c r="AF13" s="20"/>
       <c r="AG13" s="20" t="s">
         <v>138</v>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,13 +21,13 @@
     <definedName name="_lu2" localSheetId="0">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="236">
   <si>
     <t>FEDEX BUSINESS</t>
   </si>
@@ -723,12 +723,24 @@
   </si>
   <si>
     <t>SaveLabel</t>
+  </si>
+  <si>
+    <t>ProcessShipmentRequest.RequestedShipment.CustomsClearanceDetail.ImporterOfRecord.Contact</t>
+  </si>
+  <si>
+    <t>Importer Name</t>
+  </si>
+  <si>
+    <t>ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested4</t>
+  </si>
+  <si>
+    <t>ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1827,12 +1839,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1841,6 +1847,12 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="364">
@@ -2312,23 +2324,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2364,23 +2359,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2559,10 +2537,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JS15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="CG1" sqref="CG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2645,11 +2623,12 @@
     <col min="119" max="120" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="121" max="122" width="51.5703125" style="2" customWidth="1"/>
     <col min="123" max="124" width="70" style="2" bestFit="1" customWidth="1"/>
-    <col min="125" max="16384" width="9.140625" style="2"/>
+    <col min="125" max="125" width="60.5703125" style="2" customWidth="1"/>
+    <col min="126" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:279" s="17" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="22"/>
@@ -2894,10 +2873,10 @@
         <v>210</v>
       </c>
       <c r="CE1" s="23" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="CF1" s="23" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="CG1" s="23" t="s">
         <v>211</v>
@@ -3018,6 +2997,9 @@
       </c>
       <c r="DT1" s="25" t="s">
         <v>214</v>
+      </c>
+      <c r="DU1" s="25" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:279" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3387,12 +3369,15 @@
       <c r="DT2" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="DU2" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="b">
+    <row r="3" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -3643,12 +3628,15 @@
       <c r="DR3" s="40"/>
       <c r="DS3" s="40"/>
       <c r="DT3" s="45"/>
+      <c r="DU3" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="4" spans="1:279" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79" t="b">
+    <row r="4" spans="1:279" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="53" t="s">
         <v>35</v>
       </c>
@@ -3927,12 +3915,15 @@
       <c r="DR4" s="28"/>
       <c r="DS4" s="28"/>
       <c r="DT4" s="31"/>
+      <c r="DU4" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="5" spans="1:279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="79" t="b">
+    <row r="5" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="53" t="s">
         <v>35</v>
       </c>
@@ -4163,12 +4154,15 @@
       <c r="DR5" s="28"/>
       <c r="DS5" s="28"/>
       <c r="DT5" s="31"/>
+      <c r="DU5" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="6" spans="1:279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79" t="b">
+    <row r="6" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="53" t="s">
         <v>35</v>
       </c>
@@ -4411,12 +4405,15 @@
       <c r="DR6" s="28"/>
       <c r="DS6" s="28"/>
       <c r="DT6" s="31"/>
+      <c r="DU6" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="7" spans="1:279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79" t="b">
+    <row r="7" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="53" t="s">
         <v>35</v>
       </c>
@@ -4671,12 +4668,15 @@
       <c r="DR7" s="28"/>
       <c r="DS7" s="28"/>
       <c r="DT7" s="31"/>
+      <c r="DU7" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="8" spans="1:279" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79" t="b">
+    <row r="8" spans="1:279" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="54" t="s">
         <v>35</v>
       </c>
@@ -4931,12 +4931,15 @@
       <c r="DR8" s="32"/>
       <c r="DS8" s="32"/>
       <c r="DT8" s="35"/>
+      <c r="DU8" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="9" spans="1:279" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="79" t="b">
+    <row r="9" spans="1:279" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="53" t="s">
         <v>35</v>
       </c>
@@ -5189,12 +5192,15 @@
       <c r="DR9" s="28"/>
       <c r="DS9" s="28"/>
       <c r="DT9" s="31"/>
+      <c r="DU9" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="10" spans="1:279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79" t="b">
+    <row r="10" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="53" t="s">
         <v>35</v>
       </c>
@@ -5453,12 +5459,15 @@
       <c r="DR10" s="28"/>
       <c r="DS10" s="28"/>
       <c r="DT10" s="31"/>
+      <c r="DU10" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="11" spans="1:279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="79" t="b">
+    <row r="11" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="53" t="s">
         <v>35</v>
       </c>
@@ -5725,12 +5734,15 @@
       </c>
       <c r="DS11" s="28"/>
       <c r="DT11" s="31"/>
+      <c r="DU11" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="12" spans="1:279" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="79" t="b">
+    <row r="12" spans="1:279" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="53" t="s">
         <v>35</v>
       </c>
@@ -5979,12 +5991,15 @@
       <c r="DR12" s="32"/>
       <c r="DS12" s="28"/>
       <c r="DT12" s="31"/>
+      <c r="DU12" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="13" spans="1:279" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="79" t="b">
+    <row r="13" spans="1:279" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="53" t="s">
         <v>35</v>
       </c>
@@ -6243,12 +6258,15 @@
       <c r="DR13" s="28"/>
       <c r="DS13" s="28"/>
       <c r="DT13" s="31"/>
+      <c r="DU13" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="14" spans="1:279" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="b">
+      <c r="A14" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="55" t="s">
         <v>35</v>
       </c>
@@ -6525,9 +6543,12 @@
       <c r="DR14" s="57"/>
       <c r="DS14" s="57"/>
       <c r="DT14" s="61"/>
+      <c r="DU14" s="45" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="15" spans="1:279" s="18" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="78" t="b">
+      <c r="A15" s="76" t="b">
         <v>1</v>
       </c>
       <c r="B15" s="75" t="s">
@@ -6813,7 +6834,9 @@
       <c r="DR15" s="66"/>
       <c r="DS15" s="66"/>
       <c r="DT15" s="74"/>
-      <c r="DU15" s="8"/>
+      <c r="DU15" s="45" t="s">
+        <v>233</v>
+      </c>
       <c r="DV15" s="8"/>
       <c r="DW15" s="8"/>
       <c r="DX15" s="8"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Exp Intl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="234">
   <si>
     <t>FEDEX BUSINESS</t>
   </si>
@@ -266,9 +266,6 @@
     <t>CargoAircraftOnly</t>
   </si>
   <si>
-    <t>SATURDAY_DELIVERY</t>
-  </si>
-  <si>
     <t>PackagingType</t>
   </si>
   <si>
@@ -689,15 +686,6 @@
     <t>IPRC</t>
   </si>
   <si>
-    <t>55 each</t>
-  </si>
-  <si>
-    <t>15 each</t>
-  </si>
-  <si>
-    <t>12 each</t>
-  </si>
-  <si>
     <t>ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested.EventNotificationDetail.EventNotifications</t>
   </si>
   <si>
@@ -735,6 +723,12 @@
   </si>
   <si>
     <t>ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested3</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -2537,10 +2531,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JS15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="CG1" sqref="CG1"/>
+      <selection pane="bottomLeft" activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2629,7 +2623,7 @@
   <sheetData>
     <row r="1" spans="1:279" s="17" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22" t="s">
@@ -2651,34 +2645,34 @@
         <v>57</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1" s="23" t="s">
         <v>59</v>
@@ -2690,316 +2684,316 @@
         <v>59</v>
       </c>
       <c r="V1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>170</v>
-      </c>
       <c r="AF1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="AH1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="AK1" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL1" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="BC1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="AU1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW1" s="23" t="s">
+      <c r="BD1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="BE1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AY1" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="BA1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB1" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BC1" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BD1" s="23" t="s">
+      <c r="BF1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BK1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="BJ1" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK1" s="23" t="s">
-        <v>200</v>
-      </c>
       <c r="BL1" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BM1" s="23" t="s">
         <v>57</v>
       </c>
       <c r="BN1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="BO1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="BP1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="BQ1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BT1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW1" s="23" t="s">
+      <c r="CA1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="CE1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="CF1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="CG1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI1" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="CJ1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="CK1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="CL1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CM1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="CT1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CU1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="CV1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="CW1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="CX1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="CY1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="CZ1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="DA1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="DB1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="DC1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="DD1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="DF1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="DH1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="DK1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="DL1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="DM1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="DN1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="DO1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="DP1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="DQ1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="BX1" s="23" t="s">
+      <c r="DR1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="BY1" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BZ1" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA1" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="CB1" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="CC1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="CD1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="CE1" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="CF1" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="CG1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="CH1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="CI1" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="CJ1" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="CK1" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="CL1" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="CM1" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="CN1" s="23" t="s">
+      <c r="DS1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="CO1" s="23" t="s">
+      <c r="DT1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="CP1" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="CQ1" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="CR1" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="CS1" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="CT1" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="CU1" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="CV1" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="CW1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="CX1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="CY1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="CZ1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="DA1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="DB1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="DC1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="DD1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="DE1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="DF1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="DG1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="DH1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="DI1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="DJ1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="DK1" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="DL1" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM1" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="DN1" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="DO1" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="DP1" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="DQ1" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="DR1" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS1" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="DT1" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="DU1" s="25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:279" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3013,13 +3007,13 @@
         <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>70</v>
@@ -3106,7 +3100,7 @@
         <v>68</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>69</v>
@@ -3121,7 +3115,7 @@
         <v>71</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>69</v>
@@ -3136,19 +3130,19 @@
         <v>71</v>
       </c>
       <c r="AU2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>70</v>
@@ -3160,7 +3154,7 @@
         <v>76</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>69</v>
@@ -3175,10 +3169,10 @@
         <v>71</v>
       </c>
       <c r="BH2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="BJ2" s="42" t="s">
         <v>27</v>
@@ -3193,7 +3187,7 @@
         <v>29</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BO2" s="4" t="s">
         <v>71</v>
@@ -3226,22 +3220,22 @@
         <v>22</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CB2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CD2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>58</v>
@@ -3250,10 +3244,10 @@
         <v>58</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CI2" s="4" t="s">
         <v>52</v>
@@ -3286,10 +3280,10 @@
         <v>68</v>
       </c>
       <c r="CS2" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CT2" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CU2" s="48" t="s">
         <v>66</v>
@@ -3298,7 +3292,7 @@
         <v>67</v>
       </c>
       <c r="CW2" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CX2" s="48" t="s">
         <v>53</v>
@@ -3313,7 +3307,7 @@
         <v>54</v>
       </c>
       <c r="DB2" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DC2" s="48" t="s">
         <v>24</v>
@@ -3334,28 +3328,28 @@
         <v>68</v>
       </c>
       <c r="DI2" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DJ2" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="DK2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="DL2" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="DM2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="DN2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DO2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="DP2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="DP2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="DQ2" s="4" t="s">
         <v>77</v>
@@ -3384,20 +3378,20 @@
         <v>35</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="40">
         <v>4</v>
@@ -3427,7 +3421,7 @@
         <v>18</v>
       </c>
       <c r="S3" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>60</v>
@@ -3439,7 +3433,7 @@
         <v>65</v>
       </c>
       <c r="W3" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X3" s="40" t="s">
         <v>20</v>
@@ -3457,40 +3451,38 @@
         <v>61</v>
       </c>
       <c r="AC3" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="49" t="s">
-        <v>79</v>
-      </c>
+      <c r="AE3" s="49"/>
       <c r="AF3" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="40">
         <v>198823520</v>
       </c>
       <c r="AI3" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ3" s="40" t="s">
         <v>18</v>
       </c>
       <c r="AK3" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL3" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM3" s="40">
         <v>15</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO3" s="16">
         <v>50</v>
@@ -3499,34 +3491,34 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR3" s="16">
         <v>100</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT3" s="16">
         <v>25</v>
       </c>
       <c r="AU3" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV3" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW3" s="40">
         <v>1</v>
       </c>
       <c r="AX3" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY3" s="40" t="s">
         <v>18</v>
       </c>
       <c r="AZ3" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA3" s="40">
         <v>4</v>
@@ -3538,26 +3530,26 @@
         <v>3</v>
       </c>
       <c r="BD3" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE3" s="40">
         <v>15</v>
       </c>
       <c r="BF3" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG3" s="40">
         <v>15</v>
       </c>
       <c r="BH3" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI3" s="40"/>
       <c r="BJ3" s="40"/>
       <c r="BK3" s="40"/>
       <c r="BL3" s="40"/>
       <c r="BM3" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN3" s="40">
         <v>1</v>
@@ -3565,7 +3557,7 @@
       <c r="BO3" s="40"/>
       <c r="BP3" s="40"/>
       <c r="BQ3" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR3" s="40">
         <v>4</v>
@@ -3629,7 +3621,7 @@
       <c r="DS3" s="40"/>
       <c r="DT3" s="45"/>
       <c r="DU3" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:279" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3641,20 +3633,20 @@
         <v>35</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>94</v>
-      </c>
       <c r="I4" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="28">
         <v>10</v>
@@ -3684,7 +3676,7 @@
         <v>18</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T4" s="28" t="s">
         <v>60</v>
@@ -3696,7 +3688,7 @@
         <v>65</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X4" s="28" t="s">
         <v>9</v>
@@ -3714,7 +3706,7 @@
         <v>61</v>
       </c>
       <c r="AC4" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD4" s="28" t="s">
         <v>18</v>
@@ -3730,22 +3722,22 @@
         <v>61</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK4" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM4" s="28">
         <v>5000</v>
       </c>
       <c r="AN4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO4" s="10">
         <v>50</v>
@@ -3761,13 +3753,13 @@
         <v>1</v>
       </c>
       <c r="AX4" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AZ4" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA4" s="32">
         <v>10</v>
@@ -3779,28 +3771,28 @@
         <v>3</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE4" s="28">
         <v>500</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG4" s="28">
         <v>5000</v>
       </c>
       <c r="BH4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI4" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="BI4" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="BJ4" s="28"/>
       <c r="BK4" s="28"/>
       <c r="BL4" s="28"/>
       <c r="BM4" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN4" s="28">
         <v>1</v>
@@ -3809,10 +3801,10 @@
         <v>5000</v>
       </c>
       <c r="BP4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR4" s="28">
         <v>10</v>
@@ -3856,13 +3848,13 @@
       <c r="CQ4" s="28"/>
       <c r="CR4" s="28"/>
       <c r="CS4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CT4" s="11">
         <v>222326460</v>
       </c>
       <c r="CU4" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CV4" s="28">
         <v>1234567890</v>
@@ -3871,13 +3863,13 @@
         <v>12345</v>
       </c>
       <c r="CX4" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CY4" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ4" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DA4" s="28">
         <v>9923933239</v>
@@ -3886,13 +3878,13 @@
         <v>3267</v>
       </c>
       <c r="DC4" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DD4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DE4" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="DE4" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="DF4" s="11" t="s">
         <v>9</v>
@@ -3916,7 +3908,7 @@
       <c r="DS4" s="28"/>
       <c r="DT4" s="31"/>
       <c r="DU4" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3928,17 +3920,17 @@
         <v>35</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>34</v>
@@ -3971,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T5" s="28" t="s">
         <v>60</v>
@@ -3983,13 +3975,13 @@
         <v>4</v>
       </c>
       <c r="W5" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X5" s="28" t="s">
         <v>39</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z5" s="28" t="s">
         <v>39</v>
@@ -4001,7 +3993,7 @@
         <v>61</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD5" s="28" t="s">
         <v>18</v>
@@ -4015,16 +4007,16 @@
         <v>61</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK5" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL5" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM5" s="28">
         <v>3000</v>
@@ -4038,7 +4030,7 @@
       <c r="AT5" s="28"/>
       <c r="AU5" s="28"/>
       <c r="AV5" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW5" s="28">
         <v>1</v>
@@ -4062,28 +4054,28 @@
         <v>3</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE5" s="28">
         <v>1500</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG5" s="28">
         <v>3000</v>
       </c>
       <c r="BH5" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI5" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="BI5" s="28" t="s">
-        <v>153</v>
       </c>
       <c r="BJ5" s="28"/>
       <c r="BK5" s="28"/>
       <c r="BL5" s="28"/>
       <c r="BM5" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN5" s="28">
         <v>1</v>
@@ -4155,7 +4147,7 @@
       <c r="DS5" s="28"/>
       <c r="DT5" s="31"/>
       <c r="DU5" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4167,20 +4159,20 @@
         <v>35</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="28">
         <v>3</v>
@@ -4210,7 +4202,7 @@
         <v>18</v>
       </c>
       <c r="S6" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T6" s="28" t="s">
         <v>60</v>
@@ -4222,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X6" s="28" t="s">
         <v>14</v>
@@ -4234,13 +4226,13 @@
         <v>16</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB6" s="28">
         <v>150067600</v>
       </c>
       <c r="AC6" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD6" s="28" t="s">
         <v>18</v>
@@ -4254,16 +4246,16 @@
         <v>61</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK6" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL6" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM6" s="28">
         <v>80</v>
@@ -4277,7 +4269,7 @@
       <c r="AT6" s="28"/>
       <c r="AU6" s="28"/>
       <c r="AV6" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" s="28">
         <v>1</v>
@@ -4289,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AZ6" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA6" s="32">
         <v>1.5</v>
@@ -4301,13 +4293,13 @@
         <v>3</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE6" s="28">
         <v>600</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG6" s="28">
         <v>40</v>
@@ -4318,7 +4310,7 @@
       <c r="BK6" s="28"/>
       <c r="BL6" s="28"/>
       <c r="BM6" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN6" s="28">
         <v>1</v>
@@ -4326,7 +4318,7 @@
       <c r="BO6" s="28"/>
       <c r="BP6" s="28"/>
       <c r="BQ6" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR6" s="28">
         <v>3</v>
@@ -4354,16 +4346,16 @@
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28"/>
       <c r="CK6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="CL6" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="CL6" s="28" t="s">
-        <v>157</v>
       </c>
       <c r="CM6" s="28">
         <v>9012638799</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>30</v>
@@ -4406,7 +4398,7 @@
       <c r="DS6" s="28"/>
       <c r="DT6" s="31"/>
       <c r="DU6" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4418,20 +4410,20 @@
         <v>35</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="28">
         <v>180</v>
@@ -4461,7 +4453,7 @@
         <v>18</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T7" s="28" t="s">
         <v>60</v>
@@ -4473,7 +4465,7 @@
         <v>65</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X7" s="28" t="s">
         <v>17</v>
@@ -4491,7 +4483,7 @@
         <v>61</v>
       </c>
       <c r="AC7" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD7" s="28" t="s">
         <v>18</v>
@@ -4505,22 +4497,22 @@
         <v>61</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK7" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM7" s="28">
         <v>2400</v>
       </c>
       <c r="AN7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO7" s="28">
         <v>50</v>
@@ -4529,34 +4521,34 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR7" s="28">
         <v>100</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT7" s="28">
         <v>25</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV7" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW7" s="28">
         <v>1</v>
       </c>
       <c r="AX7" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AZ7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA7" s="32">
         <v>30</v>
@@ -4568,13 +4560,13 @@
         <v>3</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE7" s="28">
         <v>240</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG7" s="28">
         <v>2400</v>
@@ -4585,7 +4577,7 @@
       <c r="BK7" s="28"/>
       <c r="BL7" s="28"/>
       <c r="BM7" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN7" s="28">
         <v>2</v>
@@ -4594,22 +4586,22 @@
         <v>2400</v>
       </c>
       <c r="BP7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR7" s="28">
         <v>150</v>
       </c>
-      <c r="BS7" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="BT7" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="BU7" s="28" t="s">
-        <v>222</v>
+      <c r="BS7" s="28">
+        <v>55</v>
+      </c>
+      <c r="BT7" s="28">
+        <v>15</v>
+      </c>
+      <c r="BU7" s="28">
+        <v>12</v>
       </c>
       <c r="BV7" s="28" t="s">
         <v>41</v>
@@ -4669,7 +4661,7 @@
       <c r="DS7" s="28"/>
       <c r="DT7" s="31"/>
       <c r="DU7" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:279" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4685,16 +4677,16 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="32">
         <v>500</v>
@@ -4754,7 +4746,7 @@
         <v>61</v>
       </c>
       <c r="AC8" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD8" s="32" t="s">
         <v>18</v>
@@ -4768,22 +4760,22 @@
         <v>61</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ8" s="32" t="s">
         <v>18</v>
       </c>
       <c r="AK8" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL8" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM8" s="32">
         <v>250000</v>
       </c>
       <c r="AN8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO8" s="12">
         <v>50</v>
@@ -4792,22 +4784,22 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR8" s="12">
         <v>100</v>
       </c>
       <c r="AS8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT8" s="12">
         <v>25</v>
       </c>
       <c r="AU8" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV8" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW8" s="32">
         <v>1</v>
@@ -4819,7 +4811,7 @@
         <v>18</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA8" s="32">
         <v>500</v>
@@ -4831,13 +4823,13 @@
         <v>3</v>
       </c>
       <c r="BD8" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE8" s="32">
         <v>250000</v>
       </c>
       <c r="BF8" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG8" s="32">
         <v>250000</v>
@@ -4848,7 +4840,7 @@
       <c r="BK8" s="32"/>
       <c r="BL8" s="32"/>
       <c r="BM8" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN8" s="32">
         <v>1</v>
@@ -4856,7 +4848,7 @@
       <c r="BO8" s="32"/>
       <c r="BP8" s="32"/>
       <c r="BQ8" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR8" s="32">
         <v>500</v>
@@ -4932,7 +4924,7 @@
       <c r="DS8" s="32"/>
       <c r="DT8" s="35"/>
       <c r="DU8" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:279" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4944,20 +4936,20 @@
         <v>35</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="28">
         <v>10</v>
@@ -4987,7 +4979,7 @@
         <v>18</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T9" s="28" t="s">
         <v>60</v>
@@ -4999,7 +4991,7 @@
         <v>65</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X9" s="28" t="s">
         <v>20</v>
@@ -5017,38 +5009,38 @@
         <v>61</v>
       </c>
       <c r="AC9" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AE9" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF9" s="28"/>
       <c r="AG9" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH9" s="28">
         <v>198823520</v>
       </c>
       <c r="AI9" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK9" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL9" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM9" s="28">
         <v>15</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO9" s="10">
         <v>50</v>
@@ -5057,34 +5049,34 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR9" s="10">
         <v>100</v>
       </c>
       <c r="AS9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT9" s="10">
         <v>25</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV9" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW9" s="28">
         <v>1</v>
       </c>
       <c r="AX9" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AZ9" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA9" s="32">
         <v>4</v>
@@ -5096,26 +5088,26 @@
         <v>3</v>
       </c>
       <c r="BD9" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE9" s="28">
         <v>15</v>
       </c>
       <c r="BF9" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG9" s="28">
         <v>15</v>
       </c>
       <c r="BH9" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI9" s="28"/>
       <c r="BJ9" s="28"/>
       <c r="BK9" s="28"/>
       <c r="BL9" s="28"/>
       <c r="BM9" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN9" s="28">
         <v>1</v>
@@ -5123,7 +5115,7 @@
       <c r="BO9" s="28"/>
       <c r="BP9" s="28"/>
       <c r="BQ9" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR9" s="28">
         <v>10</v>
@@ -5141,14 +5133,14 @@
       <c r="BY9" s="28"/>
       <c r="BZ9" s="28"/>
       <c r="CA9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB9" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="CB9" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="CC9" s="28"/>
       <c r="CD9" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CE9" s="38"/>
       <c r="CF9" s="38"/>
@@ -5193,7 +5185,7 @@
       <c r="DS9" s="28"/>
       <c r="DT9" s="31"/>
       <c r="DU9" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5205,20 +5197,20 @@
         <v>35</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="28">
         <v>60</v>
@@ -5248,7 +5240,7 @@
         <v>18</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="28" t="s">
         <v>60</v>
@@ -5260,7 +5252,7 @@
         <v>65</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X10" s="28" t="s">
         <v>17</v>
@@ -5278,7 +5270,7 @@
         <v>61</v>
       </c>
       <c r="AC10" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD10" s="28" t="s">
         <v>18</v>
@@ -5292,22 +5284,22 @@
         <v>61</v>
       </c>
       <c r="AI10" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK10" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL10" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM10" s="28">
         <v>2400</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO10" s="10">
         <v>50</v>
@@ -5316,34 +5308,34 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR10" s="10">
         <v>100</v>
       </c>
       <c r="AS10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT10" s="10">
         <v>25</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV10" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW10" s="28">
         <v>1</v>
       </c>
       <c r="AX10" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AZ10" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA10" s="32">
         <v>6</v>
@@ -5355,13 +5347,13 @@
         <v>3</v>
       </c>
       <c r="BD10" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE10" s="28">
         <v>240</v>
       </c>
       <c r="BF10" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG10" s="28">
         <v>2400</v>
@@ -5372,7 +5364,7 @@
       <c r="BK10" s="28"/>
       <c r="BL10" s="28"/>
       <c r="BM10" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN10" s="28">
         <v>1</v>
@@ -5381,10 +5373,10 @@
         <v>2400</v>
       </c>
       <c r="BP10" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BQ10" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR10" s="28">
         <v>60</v>
@@ -5419,7 +5411,7 @@
       <c r="CF10" s="38"/>
       <c r="CG10" s="38"/>
       <c r="CH10" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CI10" s="38"/>
       <c r="CJ10" s="38"/>
@@ -5460,7 +5452,7 @@
       <c r="DS10" s="28"/>
       <c r="DT10" s="31"/>
       <c r="DU10" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:279" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5472,20 +5464,20 @@
         <v>35</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="28">
         <v>60</v>
@@ -5515,7 +5507,7 @@
         <v>18</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>60</v>
@@ -5527,7 +5519,7 @@
         <v>65</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X11" s="28" t="s">
         <v>17</v>
@@ -5545,7 +5537,7 @@
         <v>61</v>
       </c>
       <c r="AC11" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD11" s="28" t="s">
         <v>18</v>
@@ -5559,22 +5551,22 @@
         <v>61</v>
       </c>
       <c r="AI11" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK11" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL11" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM11" s="28">
         <v>2400</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO11" s="10">
         <v>50</v>
@@ -5583,34 +5575,34 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR11" s="10">
         <v>100</v>
       </c>
       <c r="AS11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT11" s="10">
         <v>25</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV11" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW11" s="28">
         <v>1</v>
       </c>
       <c r="AX11" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AZ11" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA11" s="32">
         <v>6</v>
@@ -5622,13 +5614,13 @@
         <v>3</v>
       </c>
       <c r="BD11" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE11" s="28">
         <v>240</v>
       </c>
       <c r="BF11" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG11" s="28">
         <v>2400</v>
@@ -5639,7 +5631,7 @@
       <c r="BK11" s="28"/>
       <c r="BL11" s="28"/>
       <c r="BM11" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN11" s="28">
         <v>1</v>
@@ -5648,10 +5640,10 @@
         <v>2400</v>
       </c>
       <c r="BP11" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BQ11" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR11" s="28">
         <v>60</v>
@@ -5687,10 +5679,10 @@
         <v>75</v>
       </c>
       <c r="CG11" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH11" s="38" t="s">
         <v>133</v>
-      </c>
-      <c r="CH11" s="38" t="s">
-        <v>134</v>
       </c>
       <c r="CI11" s="38"/>
       <c r="CJ11" s="38"/>
@@ -5735,7 +5727,7 @@
       <c r="DS11" s="28"/>
       <c r="DT11" s="31"/>
       <c r="DU11" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:279" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5747,17 +5739,17 @@
         <v>35</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>34</v>
@@ -5790,7 +5782,7 @@
         <v>18</v>
       </c>
       <c r="S12" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T12" s="28" t="s">
         <v>60</v>
@@ -5802,7 +5794,7 @@
         <v>65</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X12" s="28" t="s">
         <v>20</v>
@@ -5820,13 +5812,13 @@
         <v>61</v>
       </c>
       <c r="AC12" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AE12" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF12" s="28"/>
       <c r="AG12" s="28" t="s">
@@ -5836,22 +5828,22 @@
         <v>61</v>
       </c>
       <c r="AI12" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK12" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL12" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM12" s="28">
         <v>15</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO12" s="10">
         <v>50</v>
@@ -5860,28 +5852,28 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR12" s="10">
         <v>100</v>
       </c>
       <c r="AS12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT12" s="10">
         <v>25</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV12" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW12" s="28">
         <v>1</v>
       </c>
       <c r="AX12" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY12" s="28" t="s">
         <v>18</v>
@@ -5899,26 +5891,26 @@
         <v>3</v>
       </c>
       <c r="BD12" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE12" s="28">
         <v>15</v>
       </c>
       <c r="BF12" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG12" s="28">
         <v>15</v>
       </c>
       <c r="BH12" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI12" s="28"/>
       <c r="BJ12" s="28"/>
       <c r="BK12" s="28"/>
       <c r="BL12" s="28"/>
       <c r="BM12" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN12" s="28">
         <v>1</v>
@@ -5992,7 +5984,7 @@
       <c r="DS12" s="28"/>
       <c r="DT12" s="31"/>
       <c r="DU12" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:279" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6004,20 +5996,20 @@
         <v>35</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="28">
         <v>500</v>
@@ -6047,7 +6039,7 @@
         <v>18</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T13" s="28" t="s">
         <v>60</v>
@@ -6077,13 +6069,13 @@
         <v>61</v>
       </c>
       <c r="AC13" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AE13" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF13" s="28"/>
       <c r="AG13" s="28" t="s">
@@ -6093,22 +6085,22 @@
         <v>61</v>
       </c>
       <c r="AI13" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AK13" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL13" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM13" s="28">
         <v>250000</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO13" s="10">
         <v>50</v>
@@ -6117,22 +6109,22 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR13" s="10">
         <v>100</v>
       </c>
       <c r="AS13" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT13" s="10">
         <v>25</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV13" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW13" s="28">
         <v>1</v>
@@ -6144,7 +6136,7 @@
         <v>18</v>
       </c>
       <c r="AZ13" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA13" s="32">
         <v>500</v>
@@ -6156,13 +6148,13 @@
         <v>3</v>
       </c>
       <c r="BD13" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE13" s="28">
         <v>250000</v>
       </c>
       <c r="BF13" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG13" s="28">
         <v>250000</v>
@@ -6173,7 +6165,7 @@
       <c r="BK13" s="28"/>
       <c r="BL13" s="28"/>
       <c r="BM13" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BN13" s="28">
         <v>1</v>
@@ -6181,7 +6173,7 @@
       <c r="BO13" s="28"/>
       <c r="BP13" s="28"/>
       <c r="BQ13" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BR13" s="28">
         <v>500</v>
@@ -6259,7 +6251,7 @@
       <c r="DS13" s="28"/>
       <c r="DT13" s="31"/>
       <c r="DU13" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:279" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6271,17 +6263,17 @@
         <v>35</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="57" t="s">
         <v>34</v>
@@ -6314,7 +6306,7 @@
         <v>18</v>
       </c>
       <c r="S14" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T14" s="57" t="s">
         <v>60</v>
@@ -6344,13 +6336,13 @@
         <v>61</v>
       </c>
       <c r="AC14" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD14" s="57" t="s">
         <v>18</v>
       </c>
       <c r="AE14" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF14" s="57"/>
       <c r="AG14" s="57" t="s">
@@ -6360,22 +6352,22 @@
         <v>61</v>
       </c>
       <c r="AI14" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ14" s="57" t="s">
         <v>18</v>
       </c>
       <c r="AK14" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL14" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM14" s="57">
         <v>2000</v>
       </c>
       <c r="AN14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO14" s="50">
         <v>50</v>
@@ -6384,19 +6376,19 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR14" s="50">
         <v>100</v>
       </c>
       <c r="AS14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT14" s="50">
         <v>25</v>
       </c>
       <c r="AU14" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV14" s="50"/>
       <c r="AW14" s="57">
@@ -6421,13 +6413,13 @@
         <v>3</v>
       </c>
       <c r="BD14" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE14" s="57">
         <v>100</v>
       </c>
       <c r="BF14" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG14" s="57">
         <v>2000</v>
@@ -6438,7 +6430,7 @@
       <c r="BK14" s="57"/>
       <c r="BL14" s="57"/>
       <c r="BM14" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BN14" s="57">
         <v>1</v>
@@ -6447,7 +6439,7 @@
         <v>100</v>
       </c>
       <c r="BP14" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BQ14" s="57" t="s">
         <v>34</v>
@@ -6475,21 +6467,25 @@
       </c>
       <c r="BY14" s="57"/>
       <c r="BZ14" s="57"/>
-      <c r="CA14" s="57"/>
-      <c r="CB14" s="57"/>
+      <c r="CA14" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB14" s="57" t="s">
+        <v>233</v>
+      </c>
       <c r="CC14" s="57"/>
       <c r="CD14" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CE14" s="57"/>
       <c r="CF14" s="57"/>
       <c r="CG14" s="57"/>
       <c r="CH14" s="57"/>
       <c r="CI14" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CJ14" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CK14" s="63">
         <v>1234567890</v>
@@ -6544,7 +6540,7 @@
       <c r="DS14" s="57"/>
       <c r="DT14" s="61"/>
       <c r="DU14" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:279" s="18" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6552,23 +6548,23 @@
         <v>1</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="66" t="s">
         <v>34</v>
@@ -6601,7 +6597,7 @@
         <v>18</v>
       </c>
       <c r="S15" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T15" s="66" t="s">
         <v>60</v>
@@ -6631,13 +6627,13 @@
         <v>61</v>
       </c>
       <c r="AC15" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD15" s="66" t="s">
         <v>18</v>
       </c>
       <c r="AE15" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF15" s="66"/>
       <c r="AG15" s="66" t="s">
@@ -6647,22 +6643,22 @@
         <v>61</v>
       </c>
       <c r="AI15" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ15" s="66" t="s">
         <v>18</v>
       </c>
       <c r="AK15" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL15" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM15" s="66">
         <v>2000</v>
       </c>
       <c r="AN15" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO15" s="71">
         <v>50</v>
@@ -6671,19 +6667,19 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AR15" s="71">
         <v>100</v>
       </c>
       <c r="AS15" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT15" s="71">
         <v>25</v>
       </c>
       <c r="AU15" s="71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV15" s="71"/>
       <c r="AW15" s="66">
@@ -6708,13 +6704,13 @@
         <v>3</v>
       </c>
       <c r="BD15" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BE15" s="66">
         <v>100</v>
       </c>
       <c r="BF15" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG15" s="66">
         <v>2000</v>
@@ -6725,7 +6721,7 @@
       <c r="BK15" s="66"/>
       <c r="BL15" s="66"/>
       <c r="BM15" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BN15" s="66">
         <v>1</v>
@@ -6734,7 +6730,7 @@
         <v>100</v>
       </c>
       <c r="BP15" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BQ15" s="66" t="s">
         <v>34</v>
@@ -6762,21 +6758,25 @@
       </c>
       <c r="BY15" s="66"/>
       <c r="BZ15" s="66"/>
-      <c r="CA15" s="66"/>
-      <c r="CB15" s="66"/>
+      <c r="CA15" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB15" s="66" t="s">
+        <v>233</v>
+      </c>
       <c r="CC15" s="66"/>
       <c r="CD15" s="66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CE15" s="66"/>
       <c r="CF15" s="66"/>
       <c r="CG15" s="66"/>
       <c r="CH15" s="66"/>
       <c r="CI15" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CJ15" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CK15" s="73">
         <v>1234567890</v>
@@ -6835,7 +6835,7 @@
       <c r="DS15" s="66"/>
       <c r="DT15" s="74"/>
       <c r="DU15" s="45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="DV15" s="8"/>
       <c r="DW15" s="8"/>
